--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -247,15 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +255,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +270,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,7 +292,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,23 +344,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,23 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,31 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,25 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,19 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +452,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,61 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,8 +604,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +630,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,18 +660,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,17 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,681 +1062,761 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>141</v>
+            <v>135</v>
           </cell>
           <cell r="B19" t="str">
-            <v>ファイアエンチャント</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>201</v>
+            <v>136</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ディスチャージ</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>202</v>
+            <v>137</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ライトニングウェブ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>203</v>
+            <v>141</v>
           </cell>
           <cell r="B22" t="str">
-            <v>シャープコード</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>204</v>
+            <v>201</v>
           </cell>
           <cell r="B23" t="str">
-            <v>ショックインパルス</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>205</v>
+            <v>202</v>
           </cell>
           <cell r="B24" t="str">
-            <v>トラストチェイン</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>211</v>
+            <v>203</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ステップリーダー</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>212</v>
+            <v>204</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>221</v>
+            <v>205</v>
           </cell>
           <cell r="B27" t="str">
-            <v>アクセラレイト</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>231</v>
+            <v>211</v>
           </cell>
           <cell r="B28" t="str">
-            <v>エクステンション</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>232</v>
+            <v>212</v>
           </cell>
           <cell r="B29" t="str">
-            <v>スパークフォグ</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>233</v>
+            <v>221</v>
           </cell>
           <cell r="B30" t="str">
-            <v>スウィートボイス</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>234</v>
+            <v>231</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ファストキャスター</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>235</v>
+            <v>232</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ヘブンリーラック</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>241</v>
+            <v>233</v>
           </cell>
           <cell r="B33" t="str">
-            <v>サンダーエンチャント</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>301</v>
+            <v>234</v>
           </cell>
           <cell r="B34" t="str">
-            <v>アイスブレイド</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>302</v>
+            <v>235</v>
           </cell>
           <cell r="B35" t="str">
-            <v>カウンターオーラ</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>303</v>
+            <v>236</v>
           </cell>
           <cell r="B36" t="str">
-            <v>シールドスペル</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>304</v>
+            <v>241</v>
           </cell>
           <cell r="B37" t="str">
-            <v>エスコートソール</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>305</v>
+            <v>301</v>
           </cell>
           <cell r="B38" t="str">
-            <v>スペルバニッシュ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>311</v>
+            <v>302</v>
           </cell>
           <cell r="B39" t="str">
-            <v>フリジットシェル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>312</v>
+            <v>303</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>321</v>
+            <v>304</v>
           </cell>
           <cell r="B41" t="str">
-            <v>バブルブロウ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>331</v>
+            <v>305</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ガーディアンソウル</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>332</v>
+            <v>311</v>
           </cell>
           <cell r="B43" t="str">
-            <v>アーマーコード</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>333</v>
+            <v>312</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ガードシフト</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>334</v>
+            <v>321</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ノーリミット</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>341</v>
+            <v>331</v>
           </cell>
           <cell r="B46" t="str">
-            <v>アイスエンチャント</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>401</v>
+            <v>332</v>
           </cell>
           <cell r="B47" t="str">
-            <v>セイントレーザー</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>402</v>
+            <v>333</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ペネトレイト</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>403</v>
+            <v>334</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ヒーリング</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>404</v>
+            <v>335</v>
           </cell>
           <cell r="B50" t="str">
-            <v>リフレッシュ</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>405</v>
+            <v>336</v>
           </cell>
           <cell r="B51" t="str">
-            <v>べネディクション</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>411</v>
+            <v>341</v>
           </cell>
           <cell r="B52" t="str">
-            <v>エリクシール</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>412</v>
+            <v>401</v>
           </cell>
           <cell r="B53" t="str">
-            <v>エンジェルフェザー</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>421</v>
+            <v>402</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ホーリーグレイス</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>431</v>
+            <v>403</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ディバインシールド</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>432</v>
+            <v>404</v>
           </cell>
           <cell r="B56" t="str">
-            <v>メディケーション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>433</v>
+            <v>405</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アフェクション</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>434</v>
+            <v>411</v>
           </cell>
           <cell r="B58" t="str">
-            <v>リジェネレーション</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>441</v>
+            <v>412</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>501</v>
+            <v>421</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>502</v>
+            <v>431</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ユーサネイジア</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>503</v>
+            <v>432</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ドレインヒール</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>504</v>
+            <v>433</v>
           </cell>
           <cell r="B63" t="str">
-            <v>デリートマジック</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>505</v>
+            <v>434</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ディプラヴィティ</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>511</v>
+            <v>435</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ディストラクション</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>512</v>
+            <v>436</v>
           </cell>
           <cell r="B66" t="str">
-            <v>カオスペイン</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>521</v>
+            <v>441</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ダークネス</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>531</v>
+            <v>501</v>
           </cell>
           <cell r="B68" t="str">
-            <v>イーグルアイ</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>532</v>
+            <v>502</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>533</v>
+            <v>503</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>534</v>
+            <v>504</v>
           </cell>
           <cell r="B71" t="str">
-            <v>スカルグラッジ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>541</v>
+            <v>505</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ダークエンチャント</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>1000</v>
+            <v>511</v>
           </cell>
           <cell r="B73" t="str">
-            <v>愚者</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>1001</v>
+            <v>512</v>
           </cell>
           <cell r="B74" t="str">
-            <v>魔術師</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>1002</v>
+            <v>521</v>
           </cell>
           <cell r="B75" t="str">
-            <v>女帝</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>1003</v>
+            <v>531</v>
           </cell>
           <cell r="B76" t="str">
-            <v>女教皇</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>1004</v>
+            <v>532</v>
           </cell>
           <cell r="B77" t="str">
-            <v>皇帝</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>1005</v>
+            <v>533</v>
           </cell>
           <cell r="B78" t="str">
-            <v>法王</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>1006</v>
+            <v>534</v>
           </cell>
           <cell r="B79" t="str">
-            <v>恋愛</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>1007</v>
+            <v>535</v>
           </cell>
           <cell r="B80" t="str">
-            <v>戦車</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>1008</v>
+            <v>536</v>
           </cell>
           <cell r="B81" t="str">
-            <v>正義</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>1009</v>
+            <v>541</v>
           </cell>
           <cell r="B82" t="str">
-            <v>隠者</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1010</v>
+            <v>1000</v>
           </cell>
           <cell r="B83" t="str">
-            <v>運命</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1011</v>
+            <v>1001</v>
           </cell>
           <cell r="B84" t="str">
-            <v>剛毅</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1012</v>
+            <v>1002</v>
           </cell>
           <cell r="B85" t="str">
-            <v>刑死者</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1013</v>
+            <v>1003</v>
           </cell>
           <cell r="B86" t="str">
-            <v>死神</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1014</v>
+            <v>1004</v>
           </cell>
           <cell r="B87" t="str">
-            <v>節制</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1015</v>
+            <v>1005</v>
           </cell>
           <cell r="B88" t="str">
-            <v>悪魔</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1016</v>
+            <v>1006</v>
           </cell>
           <cell r="B89" t="str">
-            <v>塔</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1017</v>
+            <v>1007</v>
           </cell>
           <cell r="B90" t="str">
-            <v>星</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1018</v>
+            <v>1008</v>
           </cell>
           <cell r="B91" t="str">
-            <v>月</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1019</v>
+            <v>1009</v>
           </cell>
           <cell r="B92" t="str">
-            <v>太陽</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1020</v>
+            <v>1010</v>
           </cell>
           <cell r="B93" t="str">
-            <v>審判</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1022</v>
+            <v>1011</v>
           </cell>
           <cell r="B94" t="str">
-            <v>杖</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1023</v>
+            <v>1012</v>
           </cell>
           <cell r="B95" t="str">
-            <v>器</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1024</v>
+            <v>1013</v>
           </cell>
           <cell r="B96" t="str">
-            <v>剣</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1025</v>
+            <v>1014</v>
           </cell>
           <cell r="B97" t="str">
-            <v>貨幣</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>2001</v>
+            <v>1015</v>
           </cell>
           <cell r="B98" t="str">
-            <v>元素術・炎</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>2002</v>
+            <v>1016</v>
           </cell>
           <cell r="B99" t="str">
-            <v>元素術・雷</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>2003</v>
+            <v>1017</v>
           </cell>
           <cell r="B100" t="str">
-            <v>元素術・氷</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>2004</v>
+            <v>1018</v>
           </cell>
           <cell r="B101" t="str">
-            <v>光魔術</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>2005</v>
+            <v>1019</v>
           </cell>
           <cell r="B102" t="str">
-            <v>超次元術</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
+            <v>1020</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>審判</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>1022</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>1023</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>1024</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>1025</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>貨幣</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>2001</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>元素術・炎</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>2002</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>元素術・雷</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>2003</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>元素術・氷</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>2004</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>2005</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
             <v>2009</v>
           </cell>
-          <cell r="B103" t="str">
+          <cell r="B113" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -2036,7 +2116,7 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2842,7 +2922,7 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3848,7 +3928,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,8 +239,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,15 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,44 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +314,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -338,15 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,25 +376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,13 +410,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,31 +548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,115 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,20 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +666,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -668,21 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2920,10 +2920,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2975,7 +2975,7 @@
         <v>攻撃</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2993,7 +2993,7 @@
         <v>バブルブロウ</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -3001,20 +3001,20 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B5,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3022,86 +3022,86 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>503</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3109,14 +3109,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>攻撃</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -3127,17 +3127,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>シャープコード</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -3145,71 +3145,71 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>攻撃</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ウルフソウル</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3217,17 +3217,17 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -3235,17 +3235,17 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>405</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>攻撃</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -3253,17 +3253,17 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -3271,17 +3271,17 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -3289,17 +3289,17 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>521</v>
+        <v>233</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>スウィートボイス</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3320,12 +3320,12 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3335,43 +3335,43 @@
         <v>攻撃</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>べネディクション</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3379,17 +3379,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3397,14 +3397,14 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>攻撃</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3415,43 +3415,43 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>521</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークネス</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>531</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3464,12 +3464,12 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3479,51 +3479,51 @@
         <v>攻撃</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3536,12 +3536,12 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3551,43 +3551,43 @@
         <v>攻撃</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>421</v>
+        <v>103</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -3595,107 +3595,107 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>攻撃</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>攻撃</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>攻撃</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -3703,43 +3703,43 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3752,94 +3752,94 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>攻撃</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>531</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>104</v>
+        <v>534</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -3847,17 +3847,17 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <v>80</v>
@@ -3865,25 +3865,25 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>231</v>
+        <v>436</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3896,24 +3896,348 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>405</v>
+        <v>2</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>404</v>
+      </c>
+      <c r="C56" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
+        <v>リフレッシュ</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>403</v>
+      </c>
+      <c r="C57" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
+        <v>ヒーリング</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>104</v>
+      </c>
+      <c r="C60" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>133</v>
+      </c>
+      <c r="C61" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
+        <v>アサルトシフト</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>101</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>101</v>
+      </c>
+      <c r="B63">
+        <v>321</v>
+      </c>
+      <c r="C63" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
+        <v>バブルブロウ</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>102</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>102</v>
+      </c>
+      <c r="B65">
+        <v>221</v>
+      </c>
+      <c r="C65" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
+        <v>アクセラレイト</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>103</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>103</v>
+      </c>
+      <c r="B67">
+        <v>104</v>
+      </c>
+      <c r="C67" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>103</v>
+      </c>
+      <c r="B68">
+        <v>102</v>
+      </c>
+      <c r="C68" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>104</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>104</v>
+      </c>
+      <c r="B70">
+        <v>121</v>
+      </c>
+      <c r="C70" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
+        <v>メルトバースト</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>104</v>
+      </c>
+      <c r="B71">
+        <v>231</v>
+      </c>
+      <c r="C71" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>105</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>105</v>
+      </c>
+      <c r="B73">
+        <v>405</v>
+      </c>
+      <c r="C73" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
         <v>べネディクション</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
         <v>80</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -236,6 +236,88 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,8 +329,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,98 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -369,15 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,13 +392,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +434,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,43 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,13 +512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,31 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,55 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,15 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,6 +616,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -643,8 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,8 +667,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,16 +691,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,127 +709,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,849 +974,865 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>101</v>
+            <v>41</v>
           </cell>
           <cell r="B8" t="str">
-            <v>ファイアボール</v>
+            <v>アンデッド状態</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>102</v>
+            <v>42</v>
           </cell>
           <cell r="B9" t="str">
-            <v>バーンストーム</v>
+            <v>アンデッド回復</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>103</v>
+            <v>101</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ヒートスタンプ</v>
+            <v>ファイアボール</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>104</v>
+            <v>102</v>
           </cell>
           <cell r="B11" t="str">
-            <v>ソードアダプト</v>
+            <v>バーンストーム</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>111</v>
+            <v>103</v>
           </cell>
           <cell r="B12" t="str">
-            <v>インフェルノ</v>
+            <v>ヒートスタンプ</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>112</v>
+            <v>104</v>
           </cell>
           <cell r="B13" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>ソードアダプト</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>121</v>
+            <v>111</v>
           </cell>
           <cell r="B14" t="str">
-            <v>メルトバースト</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>131</v>
+            <v>112</v>
           </cell>
           <cell r="B15" t="str">
-            <v>ウルフソウル</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>132</v>
+            <v>121</v>
           </cell>
           <cell r="B16" t="str">
-            <v>プリディカメント</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>133</v>
+            <v>131</v>
           </cell>
           <cell r="B17" t="str">
-            <v>アサルトシフト</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>134</v>
+            <v>132</v>
           </cell>
           <cell r="B18" t="str">
-            <v>スタートダッシュ</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>135</v>
+            <v>133</v>
           </cell>
           <cell r="B19" t="str">
-            <v>ライズアップマインド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>136</v>
+            <v>134</v>
           </cell>
           <cell r="B20" t="str">
-            <v>イグナイテッド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>137</v>
+            <v>135</v>
           </cell>
           <cell r="B21" t="str">
-            <v>アフターバーナー</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>141</v>
+            <v>136</v>
           </cell>
           <cell r="B22" t="str">
-            <v>ファイアエンチャント</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>201</v>
+            <v>137</v>
           </cell>
           <cell r="B23" t="str">
-            <v>ディスチャージ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>202</v>
+            <v>141</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>203</v>
+            <v>201</v>
           </cell>
           <cell r="B25" t="str">
-            <v>シャープコード</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>204</v>
+            <v>202</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ショックインパルス</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>205</v>
+            <v>203</v>
           </cell>
           <cell r="B27" t="str">
-            <v>トラストチェイン</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>211</v>
+            <v>204</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ステップリーダー</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>212</v>
+            <v>205</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>221</v>
+            <v>211</v>
           </cell>
           <cell r="B30" t="str">
-            <v>アクセラレイト</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>231</v>
+            <v>212</v>
           </cell>
           <cell r="B31" t="str">
-            <v>エクステンション</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>232</v>
+            <v>221</v>
           </cell>
           <cell r="B32" t="str">
-            <v>スパークフォグ</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>233</v>
+            <v>231</v>
           </cell>
           <cell r="B33" t="str">
-            <v>スウィートボイス</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>234</v>
+            <v>232</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ファストキャスター</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>235</v>
+            <v>233</v>
           </cell>
           <cell r="B35" t="str">
-            <v>ヘブンリーラック</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>236</v>
+            <v>234</v>
           </cell>
           <cell r="B36" t="str">
-            <v>クイックアクト</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>241</v>
+            <v>235</v>
           </cell>
           <cell r="B37" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>301</v>
+            <v>236</v>
           </cell>
           <cell r="B38" t="str">
-            <v>アイスブレイド</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>302</v>
+            <v>241</v>
           </cell>
           <cell r="B39" t="str">
-            <v>カウンターオーラ</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>303</v>
+            <v>301</v>
           </cell>
           <cell r="B40" t="str">
-            <v>シールドスペル</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>304</v>
+            <v>302</v>
           </cell>
           <cell r="B41" t="str">
-            <v>エスコートソール</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>305</v>
+            <v>303</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ディープフリーズ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>311</v>
+            <v>304</v>
           </cell>
           <cell r="B43" t="str">
-            <v>フリジットシェル</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>312</v>
+            <v>305</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>321</v>
+            <v>311</v>
           </cell>
           <cell r="B45" t="str">
-            <v>バブルブロウ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>331</v>
+            <v>312</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ガーディアンソウル</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>332</v>
+            <v>321</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アーマーコード</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>333</v>
+            <v>331</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>334</v>
+            <v>332</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>335</v>
+            <v>333</v>
           </cell>
           <cell r="B50" t="str">
-            <v>カウンターヒール</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>336</v>
+            <v>334</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ペイシャンス</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>341</v>
+            <v>335</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アイスエンチャント</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>401</v>
+            <v>336</v>
           </cell>
           <cell r="B53" t="str">
-            <v>セイントレーザー</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>402</v>
+            <v>341</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ペネトレイト</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ヒーリング</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B56" t="str">
-            <v>リフレッシュ</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>405</v>
+            <v>403</v>
           </cell>
           <cell r="B57" t="str">
-            <v>べネディクション</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>411</v>
+            <v>404</v>
           </cell>
           <cell r="B58" t="str">
-            <v>エリクシール</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>412</v>
+            <v>405</v>
           </cell>
           <cell r="B59" t="str">
-            <v>エンジェルフェザー</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>421</v>
+            <v>411</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>431</v>
+            <v>412</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ディバインシールド</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>432</v>
+            <v>421</v>
           </cell>
           <cell r="B62" t="str">
-            <v>メディケーション</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>433</v>
+            <v>431</v>
           </cell>
           <cell r="B63" t="str">
-            <v>アフェクション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>434</v>
+            <v>432</v>
           </cell>
           <cell r="B64" t="str">
-            <v>リジェネレーション</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>435</v>
+            <v>433</v>
           </cell>
           <cell r="B65" t="str">
-            <v>アライアンス</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>436</v>
+            <v>434</v>
           </cell>
           <cell r="B66" t="str">
-            <v>スペクトルマイン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>441</v>
+            <v>435</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>501</v>
+            <v>436</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ダークプリズン</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>502</v>
+            <v>441</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ユーサネイジア</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>503</v>
+            <v>501</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ドレインヒール</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>504</v>
+            <v>502</v>
           </cell>
           <cell r="B71" t="str">
-            <v>デリートマジック</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>505</v>
+            <v>503</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>511</v>
+            <v>504</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ディストラクション</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>512</v>
+            <v>505</v>
           </cell>
           <cell r="B74" t="str">
-            <v>カオスペイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>521</v>
+            <v>511</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ダークネス</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>531</v>
+            <v>512</v>
           </cell>
           <cell r="B76" t="str">
-            <v>イーグルアイ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>532</v>
+            <v>521</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>533</v>
+            <v>531</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ネガティブドレイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>534</v>
+            <v>532</v>
           </cell>
           <cell r="B79" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>535</v>
+            <v>533</v>
           </cell>
           <cell r="B80" t="str">
-            <v>クリープアウト</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>536</v>
+            <v>534</v>
           </cell>
           <cell r="B81" t="str">
-            <v>カタストロフ</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>541</v>
+            <v>535</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ダークエンチャント</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1000</v>
+            <v>536</v>
           </cell>
           <cell r="B83" t="str">
-            <v>愚者</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1001</v>
+            <v>541</v>
           </cell>
           <cell r="B84" t="str">
-            <v>魔術師</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1002</v>
+            <v>1000</v>
           </cell>
           <cell r="B85" t="str">
-            <v>女帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1003</v>
+            <v>1001</v>
           </cell>
           <cell r="B86" t="str">
-            <v>女教皇</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1004</v>
+            <v>1002</v>
           </cell>
           <cell r="B87" t="str">
-            <v>皇帝</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1005</v>
+            <v>1003</v>
           </cell>
           <cell r="B88" t="str">
-            <v>法王</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1006</v>
+            <v>1004</v>
           </cell>
           <cell r="B89" t="str">
-            <v>恋愛</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1007</v>
+            <v>1005</v>
           </cell>
           <cell r="B90" t="str">
-            <v>戦車</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1008</v>
+            <v>1006</v>
           </cell>
           <cell r="B91" t="str">
-            <v>正義</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1009</v>
+            <v>1007</v>
           </cell>
           <cell r="B92" t="str">
-            <v>隠者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1010</v>
+            <v>1008</v>
           </cell>
           <cell r="B93" t="str">
-            <v>運命</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1011</v>
+            <v>1009</v>
           </cell>
           <cell r="B94" t="str">
-            <v>剛毅</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1012</v>
+            <v>1010</v>
           </cell>
           <cell r="B95" t="str">
-            <v>刑死者</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1013</v>
+            <v>1011</v>
           </cell>
           <cell r="B96" t="str">
-            <v>死神</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1014</v>
+            <v>1012</v>
           </cell>
           <cell r="B97" t="str">
-            <v>節制</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1015</v>
+            <v>1013</v>
           </cell>
           <cell r="B98" t="str">
-            <v>悪魔</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1016</v>
+            <v>1014</v>
           </cell>
           <cell r="B99" t="str">
-            <v>塔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1017</v>
+            <v>1015</v>
           </cell>
           <cell r="B100" t="str">
-            <v>星</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1018</v>
+            <v>1016</v>
           </cell>
           <cell r="B101" t="str">
-            <v>月</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1019</v>
+            <v>1017</v>
           </cell>
           <cell r="B102" t="str">
-            <v>太陽</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
           <cell r="B103" t="str">
-            <v>審判</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1022</v>
+            <v>1019</v>
           </cell>
           <cell r="B104" t="str">
-            <v>杖</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1023</v>
+            <v>1020</v>
           </cell>
           <cell r="B105" t="str">
-            <v>器</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1024</v>
+            <v>1022</v>
           </cell>
           <cell r="B106" t="str">
-            <v>剣</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1025</v>
+            <v>1023</v>
           </cell>
           <cell r="B107" t="str">
-            <v>貨幣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>2001</v>
+            <v>1024</v>
           </cell>
           <cell r="B108" t="str">
-            <v>元素術・炎</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>2002</v>
+            <v>1025</v>
           </cell>
           <cell r="B109" t="str">
-            <v>元素術・雷</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>2003</v>
+            <v>2001</v>
           </cell>
           <cell r="B110" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2004</v>
+            <v>2002</v>
           </cell>
           <cell r="B111" t="str">
-            <v>光魔術</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2005</v>
+            <v>2003</v>
           </cell>
           <cell r="B112" t="str">
-            <v>超次元術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
+            <v>2004</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>2005</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
             <v>2009</v>
           </cell>
-          <cell r="B113" t="str">
+          <cell r="B115" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -2117,7 +2133,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2685,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2901,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2920,10 +2936,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3040,14 +3056,14 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド状態</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3058,14 +3074,14 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>503</v>
+        <v>42</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3076,14 +3092,14 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>攻撃</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3091,38 +3107,38 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>533</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3130,14 +3146,14 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>攻撃</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -3148,14 +3164,14 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>攻撃</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3163,17 +3179,17 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>シャープコード</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -3181,17 +3197,17 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -3202,14 +3218,14 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>攻撃</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3220,14 +3236,14 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>攻撃</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -3235,38 +3251,38 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ウルフソウル</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3274,14 +3290,14 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>攻撃</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -3292,14 +3308,14 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>スウィートボイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -3307,38 +3323,38 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スウィートボイス</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3346,17 +3362,17 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>405</v>
+        <v>1</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>攻撃</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3364,32 +3380,32 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>攻撃</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3397,17 +3413,17 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -3418,14 +3434,14 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>521</v>
+        <v>1</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>攻撃</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3436,14 +3452,14 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>531</v>
+        <v>2</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>攻撃</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -3451,38 +3467,38 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>521</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークネス</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>531</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3490,17 +3506,17 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>攻撃</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3508,53 +3524,53 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>攻撃</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3562,14 +3578,14 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>攻撃</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -3580,14 +3596,14 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>攻撃</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -3595,38 +3611,38 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3634,14 +3650,14 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>攻撃</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -3652,14 +3668,14 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>攻撃</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -3667,17 +3683,17 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -3685,17 +3701,17 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -3706,14 +3722,14 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>攻撃</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -3724,14 +3740,14 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>332</v>
+        <v>2</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>攻撃</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -3739,17 +3755,17 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -3757,17 +3773,17 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -3778,14 +3794,14 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>531</v>
+        <v>1</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>攻撃</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -3796,40 +3812,40 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>534</v>
+        <v>41</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>アンデッド状態</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3842,48 +3858,48 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>421</v>
+        <v>531</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>436</v>
+        <v>534</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D53">
         <v>10</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3896,12 +3912,12 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3914,48 +3930,48 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D57">
         <v>10</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3973,17 +3989,17 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド状態</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>50</v>
@@ -3991,17 +4007,17 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>50</v>
@@ -4009,61 +4025,61 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>攻撃</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4081,17 +4097,17 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>攻撃</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>50</v>
@@ -4099,118 +4115,118 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>攻撃</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B71">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
@@ -4220,25 +4236,169 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>102</v>
+      </c>
+      <c r="C74" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>104</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>121</v>
+      </c>
+      <c r="C76" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
+        <v>メルトバースト</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <v>231</v>
+      </c>
+      <c r="C77" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>105</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>105</v>
+      </c>
+      <c r="B79">
+        <v>405</v>
+      </c>
+      <c r="C79" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
         <v>べネディクション</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
         <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>105</v>
+      </c>
+      <c r="B80">
+        <v>41</v>
+      </c>
+      <c r="C80" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
+        <v>アンデッド状態</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>105</v>
+      </c>
+      <c r="B81">
+        <v>42</v>
+      </c>
+      <c r="C81" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
+        <v>アンデッド回復</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,8 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,11 +262,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,28 +308,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -337,39 +353,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -378,6 +370,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,13 +392,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,13 +500,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,151 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +617,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,22 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2938,8 +2938,8 @@
   <sheetPr/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4410,10 +4410,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4926,13 +4926,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23">
-        <v>405</v>
+        <v>121</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4944,6 +4944,52 @@
         <v>0</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>405</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>405</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -239,9 +239,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,15 +277,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +331,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,62 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,14 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,7 +392,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,13 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +524,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,73 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,11 +644,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,39 +665,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,21 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,16 +691,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,127 +709,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2938,7 +2938,7 @@
   <sheetPr/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
@@ -4410,10 +4410,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4788,19 +4788,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4811,19 +4811,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4886,13 +4886,13 @@
         <v>104</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>103</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4926,22 +4926,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4949,13 +4949,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24">
-        <v>405</v>
+        <v>121</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4978,18 +4978,41 @@
         <v>405</v>
       </c>
       <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>405</v>
+      </c>
+      <c r="C26">
         <v>63</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -130,6 +130,24 @@
     <t>Paimon</t>
   </si>
   <si>
+    <t>Buer</t>
+  </si>
+  <si>
+    <t>Decarabia</t>
+  </si>
+  <si>
+    <t>Zagan</t>
+  </si>
+  <si>
+    <t>Mephisto</t>
+  </si>
+  <si>
+    <t>Astaroth</t>
+  </si>
+  <si>
+    <t>Devildragon</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -218,6 +236,24 @@
   </si>
   <si>
     <t>パイモン</t>
+  </si>
+  <si>
+    <t>ブエル</t>
+  </si>
+  <si>
+    <t>デカラビア</t>
+  </si>
+  <si>
+    <t>ザガン</t>
+  </si>
+  <si>
+    <t>メフィストフェレス</t>
+  </si>
+  <si>
+    <t>アスタロト</t>
+  </si>
+  <si>
+    <t>デビルドラゴン</t>
   </si>
 </sst>
 </file>
@@ -225,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,8 +275,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,121 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,37 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +500,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,49 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,47 +619,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,20 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +675,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,145 +727,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,7 +1013,7 @@
             <v>41</v>
           </cell>
           <cell r="B8" t="str">
-            <v>アンデッド状態</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="9">
@@ -1462,377 +1498,385 @@
         </row>
         <row r="69">
           <cell r="A69">
-            <v>441</v>
+            <v>437</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>501</v>
+            <v>441</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B73" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ディストラクション</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B76" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>521</v>
+            <v>512</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ダークネス</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>531</v>
+            <v>521</v>
           </cell>
           <cell r="B78" t="str">
-            <v>イーグルアイ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>532</v>
+            <v>531</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>533</v>
+            <v>532</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>534</v>
+            <v>533</v>
           </cell>
           <cell r="B81" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>535</v>
+            <v>534</v>
           </cell>
           <cell r="B82" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>536</v>
+            <v>535</v>
           </cell>
           <cell r="B83" t="str">
-            <v>カタストロフ</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>541</v>
+            <v>536</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ダークエンチャント</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1000</v>
+            <v>541</v>
           </cell>
           <cell r="B85" t="str">
-            <v>愚者</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B86" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B87" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B88" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B89" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B90" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B91" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B92" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B93" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B94" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B95" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B96" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B97" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B98" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B99" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B100" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B101" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B102" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B103" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B104" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B105" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B106" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B107" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B108" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B109" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B110" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B111" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B112" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B113" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B114" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
+            <v>2005</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
             <v>2009</v>
           </cell>
-          <cell r="B115" t="str">
+          <cell r="B116" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -2130,10 +2174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2926,6 +2970,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>201</v>
+      </c>
+      <c r="B22">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>202</v>
+      </c>
+      <c r="B23">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>203</v>
+      </c>
+      <c r="B24">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>204</v>
+      </c>
+      <c r="B25">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>205</v>
+      </c>
+      <c r="B26">
+        <v>205</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>206</v>
+      </c>
+      <c r="B27">
+        <v>206</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>400</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2936,10 +3190,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2949,16 +3203,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3060,7 +3314,7 @@
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>アンデッド状態</v>
+        <v>アンデッド</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3816,7 +4070,7 @@
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>アンデッド状態</v>
+        <v>アンデッド</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3996,7 +4250,7 @@
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>アンデッド状態</v>
+        <v>アンデッド</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4374,7 +4628,7 @@
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>アンデッド状態</v>
+        <v>アンデッド</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4399,6 +4653,114 @@
       </c>
       <c r="E81">
         <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>201</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>202</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>203</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>204</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>205</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>206</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4774,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4420,25 +4782,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5025,10 +5387,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -5041,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5049,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5057,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5065,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5073,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5081,7 +5443,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5089,7 +5451,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5097,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5105,7 +5467,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5113,7 +5475,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5121,7 +5483,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5129,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5137,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5145,7 +5507,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5153,7 +5515,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5161,7 +5523,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5169,7 +5531,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5177,7 +5539,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5185,7 +5547,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5193,7 +5555,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5201,7 +5563,55 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -261,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -275,106 +275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +292,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,11 +359,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,7 +428,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,25 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,25 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,19 +524,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,55 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,25 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,41 +622,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,22 +646,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,9 +693,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,145 +727,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3192,8 +3192,8 @@
   <sheetPr/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4774,8 +4774,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -261,8 +261,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -275,24 +275,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +307,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,14 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -351,43 +352,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,10 +366,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +387,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -428,7 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,25 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +464,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,85 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,37 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +619,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,36 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,11 +704,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,15 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,7 +727,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,7 +736,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,127 +745,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2176,8 +2176,8 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2946,7 +2946,7 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4774,7 +4774,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Astaroth</t>
+  </si>
+  <si>
+    <t>火</t>
   </si>
   <si>
     <t>Devildragon</t>
@@ -261,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -275,23 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -315,45 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,16 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,14 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,8 +345,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -428,30 +431,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,13 +443,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,37 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +575,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,13 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +622,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,26 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +699,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,24 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,7 +1624,7 @@
             <v>536</v>
           </cell>
           <cell r="B84" t="str">
-            <v>カタストロフ</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="85">
@@ -1634,249 +1637,257 @@
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1000</v>
+            <v>601</v>
           </cell>
           <cell r="B86" t="str">
-            <v>愚者</v>
+            <v>エンドオブライフ</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B87" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B88" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B89" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B90" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B91" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B92" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B93" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B94" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B95" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B96" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B97" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B98" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B99" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B100" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B101" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B102" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B103" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B104" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B105" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B106" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B107" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B108" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B109" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B110" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B111" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B112" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B113" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B114" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B115" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
+            <v>2005</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
             <v>2009</v>
           </cell>
-          <cell r="B116" t="str">
+          <cell r="B117" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -2176,8 +2187,8 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2970,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>201</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3004,8 +3015,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>202</v>
       </c>
@@ -3039,8 +3053,11 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>203</v>
       </c>
@@ -3074,8 +3091,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>204</v>
       </c>
@@ -3109,8 +3129,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>205</v>
       </c>
@@ -3136,13 +3159,16 @@
         <v>30</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3153,7 +3179,7 @@
         <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>400</v>
@@ -3190,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3203,16 +3229,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4675,91 +4701,415 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>511</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
+        <v>カオスペイン</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>202</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>202</v>
+      </c>
+      <c r="B89">
+        <v>202</v>
+      </c>
+      <c r="C89" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
+        <v>ライトニングウェブ</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>202</v>
+      </c>
+      <c r="B90">
+        <v>211</v>
+      </c>
+      <c r="C90" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
+        <v>ステップリーダー</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>202</v>
+      </c>
+      <c r="B91">
+        <v>212</v>
+      </c>
+      <c r="C91" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
+        <v>ユビサキデカラメトル</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>203</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>203</v>
+      </c>
+      <c r="B93">
+        <v>305</v>
+      </c>
+      <c r="C93" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
+        <v>ディープフリーズ</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>203</v>
+      </c>
+      <c r="B94">
+        <v>311</v>
+      </c>
+      <c r="C94" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
+        <v>フリジットシェル</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>203</v>
+      </c>
+      <c r="B95">
+        <v>312</v>
+      </c>
+      <c r="C95" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
+        <v>ノロマナカメニナレ</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>204</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>204</v>
+      </c>
+      <c r="B97">
+        <v>434</v>
+      </c>
+      <c r="C97" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
+        <v>リジェネレーション</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>204</v>
+      </c>
+      <c r="B98">
+        <v>411</v>
+      </c>
+      <c r="C98" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
+        <v>エリクシール</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>204</v>
+      </c>
+      <c r="B99">
+        <v>412</v>
+      </c>
+      <c r="C99" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
+        <v>エンジェルフェザー</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>205</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>205</v>
+      </c>
+      <c r="B101">
+        <v>102</v>
+      </c>
+      <c r="C101" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>205</v>
+      </c>
+      <c r="B102">
+        <v>111</v>
+      </c>
+      <c r="C102" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
+        <v>インフェルノ</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>205</v>
+      </c>
+      <c r="B103">
+        <v>112</v>
+      </c>
+      <c r="C103" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
+        <v>スベテモヤシツクス</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>206</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>206</v>
+      </c>
+      <c r="B105">
+        <v>601</v>
+      </c>
+      <c r="C105" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
+        <v>エンドオブライフ</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
         <v>30</v>
       </c>
     </row>
@@ -4772,35 +5122,35 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5375,6 +5725,29 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>206</v>
+      </c>
+      <c r="B27">
+        <v>601</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
     </row>
@@ -5403,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5411,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5419,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5427,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5435,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5443,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5451,7 +5824,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5459,7 +5832,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5467,7 +5840,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5475,7 +5848,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5483,7 +5856,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5491,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5499,7 +5872,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5507,7 +5880,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5515,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5523,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5531,7 +5904,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5539,7 +5912,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5547,7 +5920,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5555,7 +5928,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5563,7 +5936,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5571,7 +5944,7 @@
         <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5579,7 +5952,7 @@
         <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5587,7 +5960,7 @@
         <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5595,7 +5968,7 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5603,7 +5976,7 @@
         <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5611,7 +5984,7 @@
         <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -264,9 +264,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -278,8 +278,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,16 +377,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,93 +401,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,11 +415,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,7 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,31 +461,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +509,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,121 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,23 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,15 +656,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,7 +679,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,142 +733,142 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,7 +1472,7 @@
             <v>433</v>
           </cell>
           <cell r="B65" t="str">
-            <v>アフェクション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="66">
@@ -2187,8 +2187,8 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2992,7 +2992,7 @@
         <v>36</v>
       </c>
       <c r="D22">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -3030,7 +3030,7 @@
         <v>37</v>
       </c>
       <c r="D23">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -3068,7 +3068,7 @@
         <v>38</v>
       </c>
       <c r="D24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -3106,7 +3106,7 @@
         <v>39</v>
       </c>
       <c r="D25">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -3144,7 +3144,7 @@
         <v>40</v>
       </c>
       <c r="D26">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -3182,7 +3182,7 @@
         <v>42</v>
       </c>
       <c r="D27">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -3216,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3408,11 +3408,11 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>デリートマジック</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -4740,17 +4740,17 @@
         <v>201</v>
       </c>
       <c r="B85">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5007,14 +5007,14 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5025,32 +5025,32 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B101">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>エクステンション</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102">
-        <v>111</v>
+        <v>405</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>べネディクション</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5061,14 +5061,14 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103">
-        <v>112</v>
+        <v>422</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5097,19 +5097,109 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B105">
-        <v>601</v>
+        <v>102</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>205</v>
+      </c>
+      <c r="B106">
+        <v>111</v>
+      </c>
+      <c r="C106" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
+        <v>インフェルノ</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>205</v>
+      </c>
+      <c r="B107">
+        <v>112</v>
+      </c>
+      <c r="C107" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
+        <v>スベテモヤシツクス</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>205</v>
+      </c>
+      <c r="B108">
+        <v>231</v>
+      </c>
+      <c r="C108" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>206</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>206</v>
+      </c>
+      <c r="B110">
+        <v>601</v>
+      </c>
+      <c r="C110" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
         <v>エンドオブライフ</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
         <v>30</v>
       </c>
     </row>
@@ -5122,10 +5212,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -5730,24 +5820,70 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>204</v>
+      </c>
+      <c r="B27">
+        <v>405</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>204</v>
+      </c>
+      <c r="B28">
+        <v>405</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
         <v>206</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>601</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>50</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -280,14 +280,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -308,86 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,8 +360,56 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,13 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +461,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,145 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,41 +622,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,11 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +679,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -722,6 +711,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,7 +1232,7 @@
             <v>233</v>
           </cell>
           <cell r="B35" t="str">
-            <v>スウィートボイス</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="36">
@@ -1640,7 +1640,7 @@
             <v>601</v>
           </cell>
           <cell r="B86" t="str">
-            <v>エンドオブライフ</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="87">
@@ -2187,8 +2187,8 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2992,7 +2992,7 @@
         <v>36</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -3218,8 +3218,8 @@
   <sheetPr/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3292,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3310,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>スウィートボイス</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -5064,7 +5064,7 @@
         <v>204</v>
       </c>
       <c r="B103">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>エンドオブライフ</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -5214,7 +5214,7 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -280,7 +280,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,8 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,85 +386,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,9 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +431,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,175 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +622,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,17 +694,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,39 +708,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3216,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4758,11 +4758,11 @@
         <v>201</v>
       </c>
       <c r="B86">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4776,11 +4776,11 @@
         <v>201</v>
       </c>
       <c r="B87">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4791,20 +4791,20 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4812,17 +4812,17 @@
         <v>202</v>
       </c>
       <c r="B89">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>攻撃</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4830,17 +4830,17 @@
         <v>202</v>
       </c>
       <c r="B90">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4848,35 +4848,35 @@
         <v>202</v>
       </c>
       <c r="B91">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4884,17 +4884,17 @@
         <v>203</v>
       </c>
       <c r="B93">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>攻撃</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4902,11 +4902,11 @@
         <v>203</v>
       </c>
       <c r="B94">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4920,11 +4920,11 @@
         <v>203</v>
       </c>
       <c r="B95">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4935,20 +4935,20 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4956,11 +4956,11 @@
         <v>204</v>
       </c>
       <c r="B97">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>攻撃</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4974,11 +4974,11 @@
         <v>204</v>
       </c>
       <c r="B98">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4992,11 +4992,11 @@
         <v>204</v>
       </c>
       <c r="B99">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>エリクシール</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5010,11 +5010,11 @@
         <v>204</v>
       </c>
       <c r="B100">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5028,17 +5028,17 @@
         <v>204</v>
       </c>
       <c r="B101">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5046,17 +5046,17 @@
         <v>204</v>
       </c>
       <c r="B102">
-        <v>405</v>
+        <v>231</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5064,11 +5064,11 @@
         <v>204</v>
       </c>
       <c r="B103">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>べネディクション</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5079,14 +5079,14 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5100,11 +5100,11 @@
         <v>205</v>
       </c>
       <c r="B105">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -5118,17 +5118,17 @@
         <v>205</v>
       </c>
       <c r="B106">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5136,17 +5136,17 @@
         <v>205</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5154,11 +5154,11 @@
         <v>205</v>
       </c>
       <c r="B108">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5169,20 +5169,20 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5190,16 +5190,34 @@
         <v>206</v>
       </c>
       <c r="B110">
-        <v>601</v>
+        <v>1</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>206</v>
+      </c>
+      <c r="B111">
+        <v>601</v>
+      </c>
+      <c r="C111" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
         <v>エンドオブサイクル</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
         <v>30</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FCFB2A-B1CA-47A2-9EEC-17F5CE248EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,18 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -262,14 +279,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,345 +289,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -624,251 +312,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,68 +326,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Skills"/>
@@ -2179,29 +1581,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
-    <col min="3" max="3" width="21.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="3.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="3.81640625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="7" width="4.45454545454545" customWidth="1"/>
-    <col min="8" max="8" width="4.72727272727273" customWidth="1"/>
+    <col min="6" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2274,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2312,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2350,7 +1752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2388,7 +1790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2426,7 +1828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2464,7 +1866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2502,7 +1904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2540,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2578,7 +1980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2616,7 +2018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2654,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2692,7 +2094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2730,7 +2132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2768,7 +2170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2806,7 +2208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>101</v>
       </c>
@@ -2841,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>102</v>
       </c>
@@ -2876,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>103</v>
       </c>
@@ -2911,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>104</v>
       </c>
@@ -2946,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>105</v>
       </c>
@@ -2981,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>201</v>
       </c>
@@ -3019,7 +2421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>202</v>
       </c>
@@ -3057,7 +2459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>203</v>
       </c>
@@ -3095,7 +2497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>204</v>
       </c>
@@ -3133,7 +2535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>205</v>
       </c>
@@ -3171,7 +2573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>206</v>
       </c>
@@ -3207,27 +2609,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -3241,7 +2642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3259,7 +2660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3277,7 +2678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3295,7 +2696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3313,7 +2714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3331,7 +2732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3349,7 +2750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3367,7 +2768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3385,7 +2786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3403,7 +2804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3421,7 +2822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3439,7 +2840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3457,7 +2858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3475,7 +2876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3493,7 +2894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3511,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3529,7 +2930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3547,7 +2948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3565,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3583,7 +2984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3601,7 +3002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3619,7 +3020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3637,7 +3038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3655,7 +3056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3673,7 +3074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3691,7 +3092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -3709,7 +3110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3727,7 +3128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3745,7 +3146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -3763,7 +3164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7</v>
       </c>
@@ -3781,7 +3182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3799,7 +3200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3817,7 +3218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -3835,7 +3236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3853,7 +3254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3871,7 +3272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -3889,7 +3290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -3907,7 +3308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -3925,7 +3326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3943,7 +3344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -3961,7 +3362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3979,7 +3380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
@@ -3997,7 +3398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>11</v>
       </c>
@@ -4015,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>11</v>
       </c>
@@ -4033,7 +3434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>11</v>
       </c>
@@ -4051,7 +3452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -4069,7 +3470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
@@ -4087,7 +3488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12</v>
       </c>
@@ -4105,7 +3506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12</v>
       </c>
@@ -4123,7 +3524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>12</v>
       </c>
@@ -4141,7 +3542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12</v>
       </c>
@@ -4159,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -4177,7 +3578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -4195,7 +3596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
@@ -4213,7 +3614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -4231,7 +3632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13</v>
       </c>
@@ -4249,7 +3650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14</v>
       </c>
@@ -4267,7 +3668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14</v>
       </c>
@@ -4285,7 +3686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14</v>
       </c>
@@ -4303,7 +3704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>14</v>
       </c>
@@ -4321,7 +3722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>14</v>
       </c>
@@ -4339,7 +3740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>14</v>
       </c>
@@ -4357,7 +3758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>15</v>
       </c>
@@ -4375,7 +3776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
@@ -4393,7 +3794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>15</v>
       </c>
@@ -4411,7 +3812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>15</v>
       </c>
@@ -4429,7 +3830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>101</v>
       </c>
@@ -4447,7 +3848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>101</v>
       </c>
@@ -4465,7 +3866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>102</v>
       </c>
@@ -4483,7 +3884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>102</v>
       </c>
@@ -4501,7 +3902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>103</v>
       </c>
@@ -4519,7 +3920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>103</v>
       </c>
@@ -4537,7 +3938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>103</v>
       </c>
@@ -4555,7 +3956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>104</v>
       </c>
@@ -4573,7 +3974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>104</v>
       </c>
@@ -4591,7 +3992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>104</v>
       </c>
@@ -4609,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>105</v>
       </c>
@@ -4627,7 +4028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>105</v>
       </c>
@@ -4645,7 +4046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>105</v>
       </c>
@@ -4663,7 +4064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>105</v>
       </c>
@@ -4681,7 +4082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>201</v>
       </c>
@@ -4699,7 +4100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>201</v>
       </c>
@@ -4717,7 +4118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>201</v>
       </c>
@@ -4735,7 +4136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>201</v>
       </c>
@@ -4753,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>201</v>
       </c>
@@ -4771,7 +4172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>201</v>
       </c>
@@ -4789,7 +4190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>201</v>
       </c>
@@ -4807,7 +4208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>202</v>
       </c>
@@ -4825,7 +4226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>202</v>
       </c>
@@ -4843,7 +4244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>202</v>
       </c>
@@ -4861,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>202</v>
       </c>
@@ -4879,7 +4280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>203</v>
       </c>
@@ -4897,7 +4298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>203</v>
       </c>
@@ -4915,7 +4316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>203</v>
       </c>
@@ -4933,7 +4334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>203</v>
       </c>
@@ -4951,7 +4352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>204</v>
       </c>
@@ -4969,7 +4370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>204</v>
       </c>
@@ -4987,7 +4388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>204</v>
       </c>
@@ -5005,7 +4406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>204</v>
       </c>
@@ -5023,7 +4424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>204</v>
       </c>
@@ -5041,7 +4442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>204</v>
       </c>
@@ -5059,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>204</v>
       </c>
@@ -5077,7 +4478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>204</v>
       </c>
@@ -5095,7 +4496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>205</v>
       </c>
@@ -5113,7 +4514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>205</v>
       </c>
@@ -5131,7 +4532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>205</v>
       </c>
@@ -5149,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>205</v>
       </c>
@@ -5167,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>205</v>
       </c>
@@ -5185,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>206</v>
       </c>
@@ -5203,7 +4604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>206</v>
       </c>
@@ -5222,23 +4623,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -5261,7 +4661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5284,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5307,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5330,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5353,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5376,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5399,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5422,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5445,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5468,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5491,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5514,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5537,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5560,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5583,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5606,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5629,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5652,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>101</v>
       </c>
@@ -5675,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>102</v>
       </c>
@@ -5698,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>103</v>
       </c>
@@ -5721,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>103</v>
       </c>
@@ -5744,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>103</v>
       </c>
@@ -5767,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>104</v>
       </c>
@@ -5790,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>105</v>
       </c>
@@ -5813,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>105</v>
       </c>
@@ -5836,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>204</v>
       </c>
@@ -5859,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>204</v>
       </c>
@@ -5882,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>206</v>
       </c>
@@ -5906,26 +5306,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5941,7 +5340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5949,7 +5348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5957,7 +5356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5965,7 +5364,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5973,7 +5372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5981,7 +5380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5989,7 +5388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5997,7 +5396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6005,7 +5404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6013,7 +5412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6021,7 +5420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6029,7 +5428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6037,7 +5436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6045,7 +5444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6053,7 +5452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>101</v>
       </c>
@@ -6061,7 +5460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>102</v>
       </c>
@@ -6069,7 +5468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>103</v>
       </c>
@@ -6077,7 +5476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>104</v>
       </c>
@@ -6085,7 +5484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>105</v>
       </c>
@@ -6093,7 +5492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>201</v>
       </c>
@@ -6101,7 +5500,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>202</v>
       </c>
@@ -6109,7 +5508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>203</v>
       </c>
@@ -6117,7 +5516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>204</v>
       </c>
@@ -6125,7 +5524,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>205</v>
       </c>
@@ -6133,7 +5532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>206</v>
       </c>
@@ -6142,7 +5541,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FCFB2A-B1CA-47A2-9EEC-17F5CE248EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -21,18 +15,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -279,8 +262,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,22 +278,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -312,9 +624,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -326,24 +880,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Skills"/>
@@ -1581,29 +2179,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
+    <col min="3" max="3" width="21.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="3.81818181818182" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="4.7265625" customWidth="1"/>
+    <col min="6" max="7" width="4.45454545454545" customWidth="1"/>
+    <col min="8" max="8" width="4.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1676,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1714,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1752,7 +2350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1790,7 +2388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1828,7 +2426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1866,7 +2464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1904,7 +2502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1942,7 +2540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1980,7 +2578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2018,7 +2616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2056,7 +2654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2094,7 +2692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2132,7 +2730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2170,7 +2768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2208,7 +2806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>101</v>
       </c>
@@ -2243,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>102</v>
       </c>
@@ -2278,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>103</v>
       </c>
@@ -2313,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>104</v>
       </c>
@@ -2348,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>105</v>
       </c>
@@ -2383,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>201</v>
       </c>
@@ -2421,7 +3019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>202</v>
       </c>
@@ -2459,7 +3057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>203</v>
       </c>
@@ -2497,7 +3095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>204</v>
       </c>
@@ -2535,7 +3133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>205</v>
       </c>
@@ -2573,7 +3171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>206</v>
       </c>
@@ -2609,26 +3207,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2642,7 +3241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2660,7 +3259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2678,7 +3277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2696,7 +3295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2714,7 +3313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2732,7 +3331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2750,7 +3349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2768,7 +3367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2786,7 +3385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2804,7 +3403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2822,7 +3421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2840,7 +3439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2858,7 +3457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2876,7 +3475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2894,7 +3493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2912,7 +3511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2930,7 +3529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2948,7 +3547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2966,7 +3565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2984,7 +3583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3002,7 +3601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3020,7 +3619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3038,7 +3637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3056,7 +3655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3074,7 +3673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3092,7 +3691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>6</v>
       </c>
@@ -3110,7 +3709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3128,7 +3727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3146,7 +3745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>7</v>
       </c>
@@ -3164,7 +3763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>7</v>
       </c>
@@ -3182,7 +3781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3200,7 +3799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3218,7 +3817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>8</v>
       </c>
@@ -3236,7 +3835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3254,7 +3853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3272,7 +3871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>9</v>
       </c>
@@ -3290,7 +3889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>9</v>
       </c>
@@ -3308,7 +3907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>9</v>
       </c>
@@ -3326,7 +3925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3344,7 +3943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>10</v>
       </c>
@@ -3362,7 +3961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3380,7 +3979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>10</v>
       </c>
@@ -3398,7 +3997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3416,7 +4015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3434,7 +4033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>11</v>
       </c>
@@ -3452,7 +4051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>11</v>
       </c>
@@ -3470,7 +4069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>12</v>
       </c>
@@ -3488,7 +4087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>12</v>
       </c>
@@ -3506,7 +4105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>12</v>
       </c>
@@ -3524,7 +4123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>12</v>
       </c>
@@ -3542,7 +4141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>12</v>
       </c>
@@ -3560,7 +4159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>12</v>
       </c>
@@ -3578,7 +4177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>13</v>
       </c>
@@ -3596,7 +4195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>13</v>
       </c>
@@ -3614,7 +4213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>13</v>
       </c>
@@ -3632,7 +4231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>13</v>
       </c>
@@ -3650,7 +4249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3668,7 +4267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3686,7 +4285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3704,7 +4303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3722,7 +4321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3740,7 +4339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3758,7 +4357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>15</v>
       </c>
@@ -3776,7 +4375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>15</v>
       </c>
@@ -3794,7 +4393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3812,7 +4411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>15</v>
       </c>
@@ -3830,7 +4429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>101</v>
       </c>
@@ -3848,7 +4447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>101</v>
       </c>
@@ -3866,7 +4465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>102</v>
       </c>
@@ -3884,7 +4483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>102</v>
       </c>
@@ -3902,7 +4501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>103</v>
       </c>
@@ -3920,7 +4519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>103</v>
       </c>
@@ -3938,7 +4537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>103</v>
       </c>
@@ -3956,7 +4555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>104</v>
       </c>
@@ -3974,7 +4573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>104</v>
       </c>
@@ -3992,7 +4591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>104</v>
       </c>
@@ -4010,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>105</v>
       </c>
@@ -4028,7 +4627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>105</v>
       </c>
@@ -4046,7 +4645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>105</v>
       </c>
@@ -4064,7 +4663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>105</v>
       </c>
@@ -4082,7 +4681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>201</v>
       </c>
@@ -4100,7 +4699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>201</v>
       </c>
@@ -4118,7 +4717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>201</v>
       </c>
@@ -4136,7 +4735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>201</v>
       </c>
@@ -4154,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>201</v>
       </c>
@@ -4172,7 +4771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>201</v>
       </c>
@@ -4190,7 +4789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>201</v>
       </c>
@@ -4208,7 +4807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>202</v>
       </c>
@@ -4226,7 +4825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>202</v>
       </c>
@@ -4244,7 +4843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>202</v>
       </c>
@@ -4262,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>202</v>
       </c>
@@ -4280,7 +4879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>203</v>
       </c>
@@ -4298,7 +4897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>203</v>
       </c>
@@ -4316,7 +4915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>203</v>
       </c>
@@ -4334,7 +4933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>203</v>
       </c>
@@ -4352,7 +4951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>204</v>
       </c>
@@ -4370,7 +4969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>204</v>
       </c>
@@ -4388,7 +4987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>204</v>
       </c>
@@ -4406,7 +5005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>204</v>
       </c>
@@ -4424,7 +5023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>204</v>
       </c>
@@ -4442,7 +5041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>204</v>
       </c>
@@ -4460,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>204</v>
       </c>
@@ -4478,7 +5077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>204</v>
       </c>
@@ -4496,7 +5095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>205</v>
       </c>
@@ -4514,7 +5113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>205</v>
       </c>
@@ -4532,7 +5131,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>205</v>
       </c>
@@ -4550,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>205</v>
       </c>
@@ -4568,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>205</v>
       </c>
@@ -4586,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>206</v>
       </c>
@@ -4604,7 +5203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>206</v>
       </c>
@@ -4623,22 +5222,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -4661,7 +5261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4684,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4707,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4730,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4753,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4776,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4799,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4822,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4845,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4868,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4891,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4914,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4937,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4960,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4983,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5006,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5029,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5052,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>101</v>
       </c>
@@ -5075,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>102</v>
       </c>
@@ -5098,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>103</v>
       </c>
@@ -5121,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>103</v>
       </c>
@@ -5144,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>103</v>
       </c>
@@ -5167,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>104</v>
       </c>
@@ -5190,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>105</v>
       </c>
@@ -5213,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>105</v>
       </c>
@@ -5236,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>204</v>
       </c>
@@ -5259,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>204</v>
       </c>
@@ -5282,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>206</v>
       </c>
@@ -5306,25 +5906,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5332,7 +5933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5340,7 +5941,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5348,7 +5949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5356,7 +5957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5364,7 +5965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5372,7 +5973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5380,7 +5981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5388,7 +5989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5396,7 +5997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5404,7 +6005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5412,7 +6013,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5420,7 +6021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5428,7 +6029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5436,7 +6037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5444,7 +6045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5452,7 +6053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>101</v>
       </c>
@@ -5460,7 +6061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>102</v>
       </c>
@@ -5468,7 +6069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>103</v>
       </c>
@@ -5476,7 +6077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>104</v>
       </c>
@@ -5484,7 +6085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>105</v>
       </c>
@@ -5492,7 +6093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>201</v>
       </c>
@@ -5500,7 +6101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>202</v>
       </c>
@@ -5508,7 +6109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>203</v>
       </c>
@@ -5516,7 +6117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>204</v>
       </c>
@@ -5524,7 +6125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>205</v>
       </c>
@@ -5532,7 +6133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>206</v>
       </c>
@@ -5541,7 +6142,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -278,8 +278,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +308,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -307,16 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +355,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -369,32 +400,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,21 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,13 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +551,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,19 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +622,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,6 +666,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -683,7 +703,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,26 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2187,7 +2187,7 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3216,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A74" sqref="$A74:$XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4539,20 +4539,20 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4560,17 +4560,17 @@
         <v>104</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4578,35 +4578,35 @@
         <v>104</v>
       </c>
       <c r="B76">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>エクステンション</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4614,17 +4614,17 @@
         <v>105</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4632,17 +4632,17 @@
         <v>105</v>
       </c>
       <c r="B79">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>アンデッド</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4650,11 +4650,11 @@
         <v>105</v>
       </c>
       <c r="B80">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4665,20 +4665,20 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B81">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>攻撃</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4686,17 +4686,17 @@
         <v>201</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4704,11 +4704,11 @@
         <v>201</v>
       </c>
       <c r="B83">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -4722,17 +4722,17 @@
         <v>201</v>
       </c>
       <c r="B84">
-        <v>42</v>
+        <v>533</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4740,17 +4740,17 @@
         <v>201</v>
       </c>
       <c r="B85">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4758,11 +4758,11 @@
         <v>201</v>
       </c>
       <c r="B86">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4776,11 +4776,11 @@
         <v>201</v>
       </c>
       <c r="B87">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4791,20 +4791,20 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>攻撃</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4812,17 +4812,17 @@
         <v>202</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4830,17 +4830,17 @@
         <v>202</v>
       </c>
       <c r="B90">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4848,35 +4848,35 @@
         <v>202</v>
       </c>
       <c r="B91">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B92">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>攻撃</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4884,17 +4884,17 @@
         <v>203</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4902,11 +4902,11 @@
         <v>203</v>
       </c>
       <c r="B94">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4920,11 +4920,11 @@
         <v>203</v>
       </c>
       <c r="B95">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4935,20 +4935,20 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B96">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>攻撃</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4956,11 +4956,11 @@
         <v>204</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4974,11 +4974,11 @@
         <v>204</v>
       </c>
       <c r="B98">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>エリクシール</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4992,11 +4992,11 @@
         <v>204</v>
       </c>
       <c r="B99">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5010,11 +5010,11 @@
         <v>204</v>
       </c>
       <c r="B100">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5028,17 +5028,17 @@
         <v>204</v>
       </c>
       <c r="B101">
-        <v>431</v>
+        <v>231</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5046,17 +5046,17 @@
         <v>204</v>
       </c>
       <c r="B102">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>べネディクション</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5064,11 +5064,11 @@
         <v>204</v>
       </c>
       <c r="B103">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5079,14 +5079,14 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B104">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5100,17 +5100,17 @@
         <v>205</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5118,17 +5118,17 @@
         <v>205</v>
       </c>
       <c r="B106">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5136,11 +5136,11 @@
         <v>205</v>
       </c>
       <c r="B107">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -5154,11 +5154,11 @@
         <v>205</v>
       </c>
       <c r="B108">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>エクステンション</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5169,20 +5169,20 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B109">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5190,34 +5190,16 @@
         <v>206</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <v>206</v>
-      </c>
-      <c r="B111">
-        <v>601</v>
-      </c>
-      <c r="C111" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
         <v>30</v>
       </c>
     </row>
@@ -5230,10 +5212,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -5712,13 +5694,13 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5729,13 +5711,13 @@
         <v>104</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5746,22 +5728,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5769,13 +5751,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>405</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5787,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5798,42 +5780,42 @@
         <v>405</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="B26">
         <v>405</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5844,64 +5826,41 @@
         <v>405</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B28">
-        <v>405</v>
+        <v>601</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>206</v>
-      </c>
-      <c r="B29">
-        <v>601</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -264,23 +264,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,15 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +296,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,14 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -339,9 +324,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,10 +376,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,14 +396,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,15 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,13 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,55 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +622,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,6 +658,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -664,13 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,30 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2187,7 +2187,7 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3216,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A74" sqref="$A74:$XFD74"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3904,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4884,11 +4884,11 @@
         <v>203</v>
       </c>
       <c r="B93">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4902,11 +4902,11 @@
         <v>203</v>
       </c>
       <c r="B94">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4920,11 +4920,11 @@
         <v>203</v>
       </c>
       <c r="B95">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4935,20 +4935,20 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4956,11 +4956,11 @@
         <v>204</v>
       </c>
       <c r="B97">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>攻撃</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4974,11 +4974,11 @@
         <v>204</v>
       </c>
       <c r="B98">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4992,11 +4992,11 @@
         <v>204</v>
       </c>
       <c r="B99">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>エリクシール</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5010,11 +5010,11 @@
         <v>204</v>
       </c>
       <c r="B100">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5028,17 +5028,17 @@
         <v>204</v>
       </c>
       <c r="B101">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5046,17 +5046,17 @@
         <v>204</v>
       </c>
       <c r="B102">
-        <v>405</v>
+        <v>231</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5064,11 +5064,11 @@
         <v>204</v>
       </c>
       <c r="B103">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>べネディクション</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5079,14 +5079,14 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5100,17 +5100,17 @@
         <v>205</v>
       </c>
       <c r="B105">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5118,17 +5118,17 @@
         <v>205</v>
       </c>
       <c r="B106">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5136,11 +5136,11 @@
         <v>205</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -5154,11 +5154,11 @@
         <v>205</v>
       </c>
       <c r="B108">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5169,20 +5169,20 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5190,16 +5190,34 @@
         <v>206</v>
       </c>
       <c r="B110">
-        <v>601</v>
+        <v>1</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>206</v>
+      </c>
+      <c r="B111">
+        <v>601</v>
+      </c>
+      <c r="C111" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
         <v>エンドオブサイクル</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
         <v>30</v>
       </c>
     </row>
@@ -5212,10 +5230,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -5386,7 +5404,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -5406,19 +5424,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5429,7 +5447,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5452,7 +5470,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -5475,7 +5493,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5498,19 +5516,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>103</v>
+      </c>
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>32</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -5521,7 +5539,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5544,19 +5562,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -5567,7 +5585,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -5590,19 +5608,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -5613,7 +5631,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -5636,13 +5654,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5659,19 +5677,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -5682,33 +5700,33 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>104</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5717,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5728,19 +5746,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5751,10 +5769,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -5774,22 +5792,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5797,13 +5815,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="B26">
-        <v>405</v>
+        <v>121</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -5815,52 +5833,144 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>405</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>405</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>203</v>
+      </c>
+      <c r="B29">
+        <v>302</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>204</v>
+      </c>
+      <c r="B30">
+        <v>405</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>204</v>
+      </c>
+      <c r="B31">
+        <v>405</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
         <v>206</v>
       </c>
-      <c r="B28">
+      <c r="B32">
         <v>601</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>50</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -278,9 +278,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,15 +330,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +353,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -324,8 +376,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,83 +409,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,19 +467,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,109 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,20 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,41 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +687,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,103 +730,133 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,40 +865,10 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3216,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3315,20 +3315,20 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3336,11 +3336,11 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>攻撃</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3354,11 +3354,11 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アンデッド</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3372,14 +3372,14 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3390,11 +3390,11 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>攻撃</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3408,14 +3408,14 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3423,20 +3423,20 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>デリートマジック</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3444,14 +3444,14 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3462,11 +3462,11 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>攻撃</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3480,14 +3480,14 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>シャープコード</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -3495,17 +3495,17 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3516,14 +3516,14 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -3534,11 +3534,11 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>攻撃</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3552,14 +3552,14 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>ウルフソウル</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -3567,38 +3567,38 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スタートダッシュ</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3606,14 +3606,14 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>攻撃</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -3624,14 +3624,14 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>攻撃</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -3639,53 +3639,53 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3696,47 +3696,47 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>攻撃</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3747,17 +3747,17 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>521</v>
+        <v>403</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>50</v>
@@ -3768,14 +3768,14 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>531</v>
+        <v>1</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>攻撃</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -3783,79 +3783,79 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークネス</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>302</v>
+        <v>531</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>333</v>
+        <v>532</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3868,12 +3868,12 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3886,166 +3886,166 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ノーリミット</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>攻撃</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>攻撃</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -4053,17 +4053,17 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>332</v>
+        <v>2</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>攻撃</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -4071,17 +4071,17 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -4089,53 +4089,53 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ファストキャスター</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -4143,14 +4143,14 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>531</v>
+        <v>2</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>攻撃</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -4161,17 +4161,17 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>534</v>
+        <v>304</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -4179,71 +4179,71 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>アンデッド</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>436</v>
+        <v>42</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>50</v>
@@ -4251,107 +4251,107 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>42</v>
+        <v>534</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>攻撃</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <v>80</v>
@@ -4359,17 +4359,17 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>50</v>
@@ -4377,17 +4377,17 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>50</v>
@@ -4395,17 +4395,17 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>アンデッド</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -4413,100 +4413,100 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>221</v>
+        <v>433</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
@@ -4516,127 +4516,127 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>攻撃</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74">
         <v>104</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B76">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B78">
-        <v>405</v>
+        <v>1</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>攻撃</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B79">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4647,86 +4647,86 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>攻撃</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B82">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>攻撃</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B83">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B84">
-        <v>533</v>
+        <v>231</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>エクステンション</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4737,50 +4737,50 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B85">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>攻撃</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B86">
-        <v>511</v>
+        <v>405</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>べネディクション</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B87">
-        <v>512</v>
+        <v>41</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>アンデッド</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4791,104 +4791,104 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B89">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>攻撃</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>アンデッド</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93">
-        <v>302</v>
+        <v>502</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4899,14 +4899,14 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B94">
-        <v>305</v>
+        <v>511</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4917,14 +4917,14 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B95">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4935,169 +4935,169 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>攻撃</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B98">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B99">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B100">
-        <v>412</v>
+        <v>1</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>攻撃</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B101">
-        <v>431</v>
+        <v>302</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B102">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B104">
-        <v>421</v>
+        <v>312</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5115,109 +5115,271 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B106">
-        <v>102</v>
+        <v>434</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B107">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>エリクシール</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B108">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B109">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B111">
-        <v>601</v>
+        <v>405</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
+        <v>べネディクション</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>204</v>
+      </c>
+      <c r="B112">
+        <v>421</v>
+      </c>
+      <c r="C112" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>204</v>
+      </c>
+      <c r="B113">
+        <v>437</v>
+      </c>
+      <c r="C113" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
+        <v>ホーミングクルセイド</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>205</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>205</v>
+      </c>
+      <c r="B115">
+        <v>102</v>
+      </c>
+      <c r="C115" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>205</v>
+      </c>
+      <c r="B116">
+        <v>111</v>
+      </c>
+      <c r="C116" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
+        <v>インフェルノ</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>205</v>
+      </c>
+      <c r="B117">
+        <v>112</v>
+      </c>
+      <c r="C117" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
+        <v>スベテモヤシツクス</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>205</v>
+      </c>
+      <c r="B118">
+        <v>231</v>
+      </c>
+      <c r="C118" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>206</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>206</v>
+      </c>
+      <c r="B120">
+        <v>601</v>
+      </c>
+      <c r="C120" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
         <v>エンドオブサイクル</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
         <v>30</v>
       </c>
     </row>
@@ -5232,7 +5394,7 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -264,15 +264,121 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,90 +400,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -394,29 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +437,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,31 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,19 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,37 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +636,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,32 +681,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -714,11 +707,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3216,10 +3216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -5352,7 +5352,7 @@
         <v>206</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
@@ -5380,7 +5380,25 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>206</v>
+      </c>
+      <c r="B121">
+        <v>231</v>
+      </c>
+      <c r="C121" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5394,8 +5412,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6127,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F32">
         <v>0</v>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7660"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -279,15 +279,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,47 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,14 +323,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +370,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,22 +400,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,14 +421,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -431,7 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +467,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,145 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,32 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +651,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -679,13 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,11 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,145 +730,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,570 +1325,682 @@
         </row>
         <row r="47">
           <cell r="A47">
-            <v>321</v>
+            <v>313</v>
           </cell>
           <cell r="B47" t="str">
-            <v>バブルブロウ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>331</v>
+            <v>314</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ガーディアンソウル</v>
+            <v>カガミニトリコメル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>332</v>
+            <v>321</v>
           </cell>
           <cell r="B49" t="str">
-            <v>アーマーコード</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>333</v>
+            <v>331</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>334</v>
+            <v>332</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>335</v>
+            <v>333</v>
           </cell>
           <cell r="B52" t="str">
-            <v>カウンターヒール</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>336</v>
+            <v>334</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ペイシャンス</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>341</v>
+            <v>335</v>
           </cell>
           <cell r="B54" t="str">
-            <v>アイスエンチャント</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>401</v>
+            <v>336</v>
           </cell>
           <cell r="B55" t="str">
-            <v>セイントレーザー</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>402</v>
+            <v>341</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ペネトレイト</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ヒーリング</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B58" t="str">
-            <v>リフレッシュ</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>405</v>
+            <v>403</v>
           </cell>
           <cell r="B59" t="str">
-            <v>べネディクション</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>411</v>
+            <v>404</v>
           </cell>
           <cell r="B60" t="str">
-            <v>エリクシール</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>412</v>
+            <v>405</v>
           </cell>
           <cell r="B61" t="str">
-            <v>エンジェルフェザー</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>421</v>
+            <v>411</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>431</v>
+            <v>412</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ディバインシールド</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>432</v>
+            <v>421</v>
           </cell>
           <cell r="B64" t="str">
-            <v>メディケーション</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>433</v>
+            <v>431</v>
           </cell>
           <cell r="B65" t="str">
-            <v>エイミングスコープ</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>434</v>
+            <v>432</v>
           </cell>
           <cell r="B66" t="str">
-            <v>リジェネレーション</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>435</v>
+            <v>433</v>
           </cell>
           <cell r="B67" t="str">
-            <v>アライアンス</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>436</v>
+            <v>434</v>
           </cell>
           <cell r="B68" t="str">
-            <v>スペクトルマイン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>437</v>
+            <v>435</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>441</v>
+            <v>436</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>501</v>
+            <v>437</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>502</v>
+            <v>441</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ユーサネイジア</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>503</v>
+            <v>501</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ドレインヒール</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>504</v>
+            <v>502</v>
           </cell>
           <cell r="B74" t="str">
-            <v>デリートマジック</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>505</v>
+            <v>503</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>511</v>
+            <v>504</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ディストラクション</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>512</v>
+            <v>505</v>
           </cell>
           <cell r="B77" t="str">
-            <v>カオスペイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>521</v>
+            <v>511</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ダークネス</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>531</v>
+            <v>512</v>
           </cell>
           <cell r="B79" t="str">
-            <v>イーグルアイ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>532</v>
+            <v>521</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>533</v>
+            <v>531</v>
           </cell>
           <cell r="B81" t="str">
-            <v>ネガティブドレイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>534</v>
+            <v>532</v>
           </cell>
           <cell r="B82" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>535</v>
+            <v>533</v>
           </cell>
           <cell r="B83" t="str">
-            <v>クリープアウト</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>536</v>
+            <v>534</v>
           </cell>
           <cell r="B84" t="str">
-            <v>アンデッドペイン</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>541</v>
+            <v>535</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ダークエンチャント</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>601</v>
+            <v>536</v>
           </cell>
           <cell r="B86" t="str">
-            <v>エンドオブサイクル</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1000</v>
+            <v>541</v>
           </cell>
           <cell r="B87" t="str">
-            <v>愚者</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1001</v>
+            <v>601</v>
           </cell>
           <cell r="B88" t="str">
-            <v>魔術師</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1002</v>
+            <v>1000</v>
           </cell>
           <cell r="B89" t="str">
-            <v>女帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1003</v>
+            <v>1001</v>
           </cell>
           <cell r="B90" t="str">
-            <v>女教皇</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1004</v>
+            <v>1002</v>
           </cell>
           <cell r="B91" t="str">
-            <v>皇帝</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1005</v>
+            <v>1003</v>
           </cell>
           <cell r="B92" t="str">
-            <v>法王</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1006</v>
+            <v>1004</v>
           </cell>
           <cell r="B93" t="str">
-            <v>恋愛</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1007</v>
+            <v>1005</v>
           </cell>
           <cell r="B94" t="str">
-            <v>戦車</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1008</v>
+            <v>1006</v>
           </cell>
           <cell r="B95" t="str">
-            <v>正義</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1009</v>
+            <v>1007</v>
           </cell>
           <cell r="B96" t="str">
-            <v>隠者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1010</v>
+            <v>1008</v>
           </cell>
           <cell r="B97" t="str">
-            <v>運命</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1011</v>
+            <v>1009</v>
           </cell>
           <cell r="B98" t="str">
-            <v>剛毅</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1012</v>
+            <v>1010</v>
           </cell>
           <cell r="B99" t="str">
-            <v>刑死者</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1013</v>
+            <v>1011</v>
           </cell>
           <cell r="B100" t="str">
-            <v>死神</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1014</v>
+            <v>1012</v>
           </cell>
           <cell r="B101" t="str">
-            <v>節制</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1015</v>
+            <v>1013</v>
           </cell>
           <cell r="B102" t="str">
-            <v>悪魔</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1016</v>
+            <v>1014</v>
           </cell>
           <cell r="B103" t="str">
-            <v>塔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1017</v>
+            <v>1015</v>
           </cell>
           <cell r="B104" t="str">
-            <v>星</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1018</v>
+            <v>1016</v>
           </cell>
           <cell r="B105" t="str">
-            <v>月</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1019</v>
+            <v>1017</v>
           </cell>
           <cell r="B106" t="str">
-            <v>太陽</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
           <cell r="B107" t="str">
-            <v>審判</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1022</v>
+            <v>1019</v>
           </cell>
           <cell r="B108" t="str">
-            <v>杖</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1023</v>
+            <v>1020</v>
           </cell>
           <cell r="B109" t="str">
-            <v>器</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1024</v>
+            <v>1022</v>
           </cell>
           <cell r="B110" t="str">
-            <v>剣</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1025</v>
+            <v>1023</v>
           </cell>
           <cell r="B111" t="str">
-            <v>貨幣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2001</v>
+            <v>1024</v>
           </cell>
           <cell r="B112" t="str">
-            <v>元素術・炎</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>2002</v>
+            <v>1025</v>
           </cell>
           <cell r="B113" t="str">
-            <v>元素術・雷</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2003</v>
+            <v>2001</v>
           </cell>
           <cell r="B114" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>2004</v>
+            <v>2002</v>
           </cell>
           <cell r="B115" t="str">
-            <v>光魔術</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>2005</v>
+            <v>2003</v>
           </cell>
           <cell r="B116" t="str">
-            <v>超次元術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
+            <v>2004</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>2005</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
             <v>2009</v>
           </cell>
-          <cell r="B117" t="str">
+          <cell r="B119" t="str">
             <v>はずす</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>4001</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>人体錬成+\d</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>4002</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>理性拡張+\d</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>4003</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>存在修復+\d</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>4004</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>救済執行+\d</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>4005</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>素子補充+\d</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>4101</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>最大Hp+\d</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>4102</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>最大Mp+\d</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>4103</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>ATK+\d</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>4104</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>DEF+\d</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>4105</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>SPD+\d</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>4201</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>4301</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>すべて死せる魂+\d</v>
           </cell>
         </row>
       </sheetData>
@@ -2187,7 +2299,7 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5412,7 +5524,7 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7660"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -130,6 +130,12 @@
     <t>Paimon</t>
   </si>
   <si>
+    <t>Eihort</t>
+  </si>
+  <si>
+    <t>Nodens</t>
+  </si>
+  <si>
     <t>Buer</t>
   </si>
   <si>
@@ -239,6 +245,12 @@
   </si>
   <si>
     <t>パイモン</t>
+  </si>
+  <si>
+    <t>アイホート</t>
+  </si>
+  <si>
+    <t>ノーデンス</t>
   </si>
   <si>
     <t>ブエル</t>
@@ -264,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -279,7 +291,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +335,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -300,14 +365,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,15 +388,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,44 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -392,30 +419,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -431,7 +443,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +521,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,67 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,24 +627,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -622,15 +634,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,11 +654,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,38 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +693,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,657 +1361,697 @@
         </row>
         <row r="50">
           <cell r="A50">
-            <v>331</v>
+            <v>322</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ガーディアンソウル</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>332</v>
+            <v>331</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>333</v>
+            <v>332</v>
           </cell>
           <cell r="B52" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>334</v>
+            <v>333</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>335</v>
+            <v>334</v>
           </cell>
           <cell r="B54" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>336</v>
+            <v>335</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>341</v>
+            <v>336</v>
           </cell>
           <cell r="B56" t="str">
-            <v>アイスエンチャント</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>401</v>
+            <v>341</v>
           </cell>
           <cell r="B57" t="str">
-            <v>セイントレーザー</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B60" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B61" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B62" t="str">
-            <v>エリクシール</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B63" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>421</v>
+            <v>412</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>431</v>
+            <v>413</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ディバインシールド</v>
+            <v>エンジェルハイロウ</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>432</v>
+            <v>414</v>
           </cell>
           <cell r="B66" t="str">
-            <v>メディケーション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>433</v>
+            <v>421</v>
           </cell>
           <cell r="B67" t="str">
-            <v>エイミングスコープ</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>434</v>
+            <v>422</v>
           </cell>
           <cell r="B68" t="str">
-            <v>リジェネレーション</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>435</v>
+            <v>431</v>
           </cell>
           <cell r="B69" t="str">
-            <v>アライアンス</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>436</v>
+            <v>432</v>
           </cell>
           <cell r="B70" t="str">
-            <v>スペクトルマイン</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>437</v>
+            <v>433</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>441</v>
+            <v>434</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>501</v>
+            <v>435</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ダークプリズン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>502</v>
+            <v>436</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ユーサネイジア</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>503</v>
+            <v>437</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ドレインヒール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>504</v>
+            <v>438</v>
           </cell>
           <cell r="B76" t="str">
-            <v>デリートマジック</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>505</v>
+            <v>441</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>511</v>
+            <v>501</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ディストラクション</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>512</v>
+            <v>502</v>
           </cell>
           <cell r="B79" t="str">
-            <v>カオスペイン</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>521</v>
+            <v>503</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ダークネス</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>531</v>
+            <v>504</v>
           </cell>
           <cell r="B81" t="str">
-            <v>イーグルアイ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>532</v>
+            <v>505</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>533</v>
+            <v>511</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>534</v>
+            <v>512</v>
           </cell>
           <cell r="B84" t="str">
-            <v>スカルグラッジ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>535</v>
+            <v>521</v>
           </cell>
           <cell r="B85" t="str">
-            <v>クリープアウト</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>536</v>
+            <v>531</v>
           </cell>
           <cell r="B86" t="str">
-            <v>アンデッドペイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>541</v>
+            <v>532</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ダークエンチャント</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>601</v>
+            <v>533</v>
           </cell>
           <cell r="B88" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1000</v>
+            <v>534</v>
           </cell>
           <cell r="B89" t="str">
-            <v>愚者</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1001</v>
+            <v>535</v>
           </cell>
           <cell r="B90" t="str">
-            <v>魔術師</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1002</v>
+            <v>536</v>
           </cell>
           <cell r="B91" t="str">
-            <v>女帝</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1003</v>
+            <v>541</v>
           </cell>
           <cell r="B92" t="str">
-            <v>女教皇</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1004</v>
+            <v>601</v>
           </cell>
           <cell r="B93" t="str">
-            <v>皇帝</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1005</v>
+            <v>1000</v>
           </cell>
           <cell r="B94" t="str">
-            <v>法王</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1006</v>
+            <v>1001</v>
           </cell>
           <cell r="B95" t="str">
-            <v>恋愛</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1007</v>
+            <v>1002</v>
           </cell>
           <cell r="B96" t="str">
-            <v>戦車</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1008</v>
+            <v>1003</v>
           </cell>
           <cell r="B97" t="str">
-            <v>正義</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1009</v>
+            <v>1004</v>
           </cell>
           <cell r="B98" t="str">
-            <v>隠者</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1010</v>
+            <v>1005</v>
           </cell>
           <cell r="B99" t="str">
-            <v>運命</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1011</v>
+            <v>1006</v>
           </cell>
           <cell r="B100" t="str">
-            <v>剛毅</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1012</v>
+            <v>1007</v>
           </cell>
           <cell r="B101" t="str">
-            <v>刑死者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1013</v>
+            <v>1008</v>
           </cell>
           <cell r="B102" t="str">
-            <v>死神</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1014</v>
+            <v>1009</v>
           </cell>
           <cell r="B103" t="str">
-            <v>節制</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1015</v>
+            <v>1010</v>
           </cell>
           <cell r="B104" t="str">
-            <v>悪魔</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1016</v>
+            <v>1011</v>
           </cell>
           <cell r="B105" t="str">
-            <v>塔</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1017</v>
+            <v>1012</v>
           </cell>
           <cell r="B106" t="str">
-            <v>星</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1018</v>
+            <v>1013</v>
           </cell>
           <cell r="B107" t="str">
-            <v>月</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1019</v>
+            <v>1014</v>
           </cell>
           <cell r="B108" t="str">
-            <v>太陽</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1020</v>
+            <v>1015</v>
           </cell>
           <cell r="B109" t="str">
-            <v>審判</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1022</v>
+            <v>1016</v>
           </cell>
           <cell r="B110" t="str">
-            <v>杖</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1023</v>
+            <v>1017</v>
           </cell>
           <cell r="B111" t="str">
-            <v>器</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1024</v>
+            <v>1018</v>
           </cell>
           <cell r="B112" t="str">
-            <v>剣</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1025</v>
+            <v>1019</v>
           </cell>
           <cell r="B113" t="str">
-            <v>貨幣</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2001</v>
+            <v>1020</v>
           </cell>
           <cell r="B114" t="str">
-            <v>元素術・炎</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>2002</v>
+            <v>1022</v>
           </cell>
           <cell r="B115" t="str">
-            <v>元素術・雷</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>2003</v>
+            <v>1023</v>
           </cell>
           <cell r="B116" t="str">
-            <v>元素術・氷</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>2004</v>
+            <v>1024</v>
           </cell>
           <cell r="B117" t="str">
-            <v>光魔術</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>2005</v>
+            <v>1025</v>
           </cell>
           <cell r="B118" t="str">
-            <v>超次元術</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>2009</v>
+            <v>2001</v>
           </cell>
           <cell r="B119" t="str">
-            <v>はずす</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>4001</v>
+            <v>2002</v>
           </cell>
           <cell r="B120" t="str">
-            <v>人体錬成+\d</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>4002</v>
+            <v>2003</v>
           </cell>
           <cell r="B121" t="str">
-            <v>理性拡張+\d</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>4003</v>
+            <v>2004</v>
           </cell>
           <cell r="B122" t="str">
-            <v>存在修復+\d</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>4004</v>
+            <v>2005</v>
           </cell>
           <cell r="B123" t="str">
-            <v>救済執行+\d</v>
+            <v>超次元術</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>4005</v>
+            <v>2009</v>
           </cell>
           <cell r="B124" t="str">
-            <v>素子補充+\d</v>
+            <v>はずす</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>4101</v>
+            <v>4001</v>
           </cell>
           <cell r="B125" t="str">
-            <v>最大Hp+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>4102</v>
+            <v>4002</v>
           </cell>
           <cell r="B126" t="str">
-            <v>最大Mp+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>4103</v>
+            <v>4003</v>
           </cell>
           <cell r="B127" t="str">
-            <v>ATK+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4104</v>
+            <v>4004</v>
           </cell>
           <cell r="B128" t="str">
-            <v>DEF+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>4105</v>
+            <v>4005</v>
           </cell>
           <cell r="B129" t="str">
-            <v>SPD+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>4201</v>
+            <v>4101</v>
           </cell>
           <cell r="B130" t="str">
-            <v>\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
+            <v>4102</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>最大Mp+\d</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>4103</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>ATK+\d</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>4104</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>DEF+\d</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>4105</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>SPD+\d</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>4201</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
             <v>4301</v>
           </cell>
-          <cell r="B131" t="str">
+          <cell r="B136" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2297,10 +2349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3093,12 +3145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:11">
       <c r="A22">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B22">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -3107,7 +3159,7 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>40</v>
@@ -3127,16 +3179,13 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B23">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -3145,7 +3194,7 @@
         <v>100</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>40</v>
@@ -3165,16 +3214,13 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -3195,7 +3241,7 @@
         <v>30</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3204,21 +3250,21 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="D25">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -3242,15 +3288,15 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -3280,21 +3326,21 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>204</v>
+      </c>
+      <c r="B27">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <v>206</v>
-      </c>
-      <c r="B27">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
       <c r="D27">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -3316,6 +3362,158 @@
       </c>
       <c r="K27">
         <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>205</v>
+      </c>
+      <c r="B28">
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>206</v>
+      </c>
+      <c r="B29">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>213</v>
+      </c>
+      <c r="B30">
+        <v>203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>214</v>
+      </c>
+      <c r="B31">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3328,10 +3526,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3341,16 +3539,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3728,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3746,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4921,7 +5119,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4934,73 +5132,73 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B90">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B91">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>エクステンション</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B92">
-        <v>533</v>
+        <v>41</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>アンデッド</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B93">
-        <v>502</v>
+        <v>42</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5011,140 +5209,140 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B94">
-        <v>511</v>
+        <v>1</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>攻撃</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B95">
-        <v>512</v>
+        <v>322</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>攻撃</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B98">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>アンデッド</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B99">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B101">
-        <v>302</v>
+        <v>502</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5155,14 +5353,14 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102">
-        <v>305</v>
+        <v>511</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5173,14 +5371,14 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B103">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5191,164 +5389,164 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>攻撃</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B106">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B107">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B108">
-        <v>412</v>
+        <v>1</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>攻撃</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B109">
-        <v>431</v>
+        <v>302</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B110">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B112">
-        <v>421</v>
+        <v>312</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5356,11 +5554,11 @@
         <v>204</v>
       </c>
       <c r="B113">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>攻撃</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5371,14 +5569,14 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5389,61 +5587,61 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B115">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>エリクシール</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B116">
-        <v>111</v>
+        <v>412</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B117">
-        <v>112</v>
+        <v>431</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B118">
         <v>231</v>
@@ -5461,14 +5659,14 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5479,38 +5677,434 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B120">
-        <v>601</v>
+        <v>421</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B121">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
+        <v>ホーミングクルセイド</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>205</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>205</v>
+      </c>
+      <c r="B123">
+        <v>102</v>
+      </c>
+      <c r="C123" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>205</v>
+      </c>
+      <c r="B124">
+        <v>111</v>
+      </c>
+      <c r="C124" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
+        <v>インフェルノ</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>205</v>
+      </c>
+      <c r="B125">
+        <v>112</v>
+      </c>
+      <c r="C125" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
+        <v>スベテモヤシツクス</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>205</v>
+      </c>
+      <c r="B126">
+        <v>231</v>
+      </c>
+      <c r="C126" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
         <v>エクステンション</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>206</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>206</v>
+      </c>
+      <c r="B128">
+        <v>601</v>
+      </c>
+      <c r="C128" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
+        <v>エンドオブサイクル</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>206</v>
+      </c>
+      <c r="B129">
+        <v>231</v>
+      </c>
+      <c r="C129" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>213</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>213</v>
+      </c>
+      <c r="B131">
+        <v>305</v>
+      </c>
+      <c r="C131" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
+        <v>ディープフリーズ</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>213</v>
+      </c>
+      <c r="B132">
+        <v>322</v>
+      </c>
+      <c r="C132" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
+        <v>アクアミラージュ</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>213</v>
+      </c>
+      <c r="B133">
+        <v>313</v>
+      </c>
+      <c r="C133" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
+        <v>アンチドード</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>213</v>
+      </c>
+      <c r="B134">
+        <v>314</v>
+      </c>
+      <c r="C134" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
+        <v>カガミニトリコメル</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>214</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>214</v>
+      </c>
+      <c r="B136">
+        <v>434</v>
+      </c>
+      <c r="C136" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
+        <v>リジェネレーション</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>214</v>
+      </c>
+      <c r="B137">
+        <v>413</v>
+      </c>
+      <c r="C137" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
+        <v>エンジェルハイロウ</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>214</v>
+      </c>
+      <c r="B138">
+        <v>414</v>
+      </c>
+      <c r="C138" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
+        <v>トリニティレイ</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>214</v>
+      </c>
+      <c r="B139">
+        <v>431</v>
+      </c>
+      <c r="C139" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>214</v>
+      </c>
+      <c r="B140">
+        <v>231</v>
+      </c>
+      <c r="C140" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>214</v>
+      </c>
+      <c r="B141">
+        <v>422</v>
+      </c>
+      <c r="C141" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
+        <v>プリズムリフレクター</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>214</v>
+      </c>
+      <c r="B142">
+        <v>421</v>
+      </c>
+      <c r="C142" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>214</v>
+      </c>
+      <c r="B143">
+        <v>437</v>
+      </c>
+      <c r="C143" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
+        <v>ホーミングクルセイド</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5524,33 +6118,33 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6275,10 +6869,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -6291,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6299,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6307,7 +6901,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6315,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6323,7 +6917,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6331,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6339,7 +6933,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6347,7 +6941,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6355,7 +6949,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6363,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6371,7 +6965,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6379,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6387,7 +6981,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6395,7 +6989,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6403,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6411,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6419,7 +7013,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6427,7 +7021,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6435,7 +7029,7 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6443,7 +7037,7 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6451,55 +7045,71 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>206</v>
       </c>
-      <c r="B27" t="s">
-        <v>78</v>
+      <c r="B29" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -297,13 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -314,14 +307,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,9 +343,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,28 +385,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,15 +404,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -410,27 +419,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,7 +467,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,61 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,31 +575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,25 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,43 +637,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -694,6 +663,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -705,6 +698,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,17 +734,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1417,641 +1417,649 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>341</v>
+            <v>337</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アイスエンチャント</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>401</v>
+            <v>341</v>
           </cell>
           <cell r="B58" t="str">
-            <v>セイントレーザー</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B61" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B62" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B63" t="str">
-            <v>エリクシール</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B64" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>413</v>
+            <v>412</v>
           </cell>
           <cell r="B65" t="str">
-            <v>エンジェルハイロウ</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>414</v>
+            <v>413</v>
           </cell>
           <cell r="B66" t="str">
-            <v>トリニティレイ</v>
+            <v>エンジェルハイロウ</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>421</v>
+            <v>414</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ホーリーグレイス</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>422</v>
+            <v>421</v>
           </cell>
           <cell r="B68" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>431</v>
+            <v>422</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ディバインシールド</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>432</v>
+            <v>431</v>
           </cell>
           <cell r="B70" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>433</v>
+            <v>432</v>
           </cell>
           <cell r="B71" t="str">
-            <v>エイミングスコープ</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>434</v>
+            <v>433</v>
           </cell>
           <cell r="B72" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>435</v>
+            <v>434</v>
           </cell>
           <cell r="B73" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>436</v>
+            <v>435</v>
           </cell>
           <cell r="B74" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>437</v>
+            <v>436</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>438</v>
+            <v>437</v>
           </cell>
           <cell r="B76" t="str">
-            <v>スペリオール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>441</v>
+            <v>438</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>501</v>
+            <v>441</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B81" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ディストラクション</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B84" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>521</v>
+            <v>512</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ダークネス</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>531</v>
+            <v>521</v>
           </cell>
           <cell r="B86" t="str">
-            <v>イーグルアイ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>532</v>
+            <v>531</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>533</v>
+            <v>532</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>534</v>
+            <v>533</v>
           </cell>
           <cell r="B89" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>535</v>
+            <v>534</v>
           </cell>
           <cell r="B90" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>536</v>
+            <v>535</v>
           </cell>
           <cell r="B91" t="str">
-            <v>アンデッドペイン</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>541</v>
+            <v>536</v>
           </cell>
           <cell r="B92" t="str">
-            <v>ダークエンチャント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>601</v>
+            <v>541</v>
           </cell>
           <cell r="B93" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1000</v>
+            <v>601</v>
           </cell>
           <cell r="B94" t="str">
-            <v>愚者</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B95" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B96" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B97" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B98" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B99" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B100" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B101" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B102" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B103" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B104" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B105" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B106" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B107" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B108" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B109" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B110" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B111" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B112" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B113" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B114" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B115" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B116" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B117" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B118" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B119" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B120" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B121" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B122" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B123" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>2009</v>
+            <v>2005</v>
           </cell>
           <cell r="B124" t="str">
-            <v>はずす</v>
+            <v>超次元術</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>4001</v>
+            <v>2009</v>
           </cell>
           <cell r="B125" t="str">
-            <v>人体錬成+\d</v>
+            <v>はずす</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>4002</v>
+            <v>4001</v>
           </cell>
           <cell r="B126" t="str">
-            <v>理性拡張+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>4003</v>
+            <v>4002</v>
           </cell>
           <cell r="B127" t="str">
-            <v>存在修復+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4004</v>
+            <v>4003</v>
           </cell>
           <cell r="B128" t="str">
-            <v>救済執行+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>4005</v>
+            <v>4004</v>
           </cell>
           <cell r="B129" t="str">
-            <v>素子補充+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>4101</v>
+            <v>4005</v>
           </cell>
           <cell r="B130" t="str">
-            <v>最大Hp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>4102</v>
+            <v>4101</v>
           </cell>
           <cell r="B131" t="str">
-            <v>最大Mp+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>4103</v>
+            <v>4102</v>
           </cell>
           <cell r="B132" t="str">
-            <v>ATK+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>4104</v>
+            <v>4103</v>
           </cell>
           <cell r="B133" t="str">
-            <v>DEF+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>4105</v>
+            <v>4104</v>
           </cell>
           <cell r="B134" t="str">
-            <v>SPD+\d</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>4201</v>
+            <v>4105</v>
           </cell>
           <cell r="B135" t="str">
-            <v>\d</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
+            <v>4201</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
             <v>4301</v>
           </cell>
-          <cell r="B136" t="str">
+          <cell r="B137" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2351,7 +2359,7 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3191,7 +3199,7 @@
         <v>37</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -3528,7 +3536,7 @@
   <sheetPr/>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -287,13 +287,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,16 +298,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,9 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,23 +334,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,19 +365,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,34 +387,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,19 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,97 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +527,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,35 +639,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,15 +675,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +693,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,7 +1348,7 @@
             <v>314</v>
           </cell>
           <cell r="B48" t="str">
-            <v>カガミニトリコメル</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="49">
@@ -1492,7 +1492,7 @@
             <v>413</v>
           </cell>
           <cell r="B66" t="str">
-            <v>エンジェルハイロウ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="67">
@@ -2359,7 +2359,7 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3536,8 +3536,8 @@
   <sheetPr/>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="E132">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5944,13 +5944,13 @@
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>カガミニトリコメル</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>エンジェルハイロウ</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="E138">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6030,11 +6030,11 @@
         <v>214</v>
       </c>
       <c r="B139">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>スペリオール</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:5">

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -292,14 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +305,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -319,16 +334,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,50 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,25 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +403,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -443,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +479,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,61 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,19 +581,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,55 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,11 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,8 +670,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +680,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -696,11 +713,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,21 +734,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2359,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3534,10 +3534,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4392,14 +4392,14 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>エクステンション</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -4410,14 +4410,14 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -4428,14 +4428,14 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>ファストキャスター</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -4443,17 +4443,17 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ファストキャスター</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -4464,14 +4464,14 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -4482,11 +4482,11 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>攻撃</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -4500,14 +4500,14 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -4515,17 +4515,17 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -4536,17 +4536,17 @@
         <v>12</v>
       </c>
       <c r="B56">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>攻撃</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4554,11 +4554,11 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アンデッド</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4572,17 +4572,17 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4590,11 +4590,11 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>531</v>
+        <v>2</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>攻撃</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -4608,14 +4608,14 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -4623,20 +4623,20 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>534</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4644,14 +4644,14 @@
         <v>13</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -4662,17 +4662,17 @@
         <v>13</v>
       </c>
       <c r="B63">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4680,32 +4680,32 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>50</v>
@@ -4716,11 +4716,11 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>攻撃</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4734,11 +4734,11 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アンデッド</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4752,14 +4752,14 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>50</v>
@@ -4770,11 +4770,11 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>攻撃</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -4788,17 +4788,17 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4806,14 +4806,14 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>エイミングスコープ</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>80</v>
@@ -4821,20 +4821,20 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4842,14 +4842,14 @@
         <v>15</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>50</v>
@@ -4860,11 +4860,11 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>攻撃</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -4878,35 +4878,35 @@
         <v>15</v>
       </c>
       <c r="B75">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4914,35 +4914,35 @@
         <v>101</v>
       </c>
       <c r="B77">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>攻撃</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4950,11 +4950,11 @@
         <v>102</v>
       </c>
       <c r="B79">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>攻撃</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4965,20 +4965,20 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4986,35 +4986,35 @@
         <v>103</v>
       </c>
       <c r="B81">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>攻撃</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
+        <v>103</v>
+      </c>
+      <c r="B82">
         <v>104</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5022,17 +5022,17 @@
         <v>104</v>
       </c>
       <c r="B83">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>攻撃</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5040,35 +5040,35 @@
         <v>104</v>
       </c>
       <c r="B84">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5076,17 +5076,17 @@
         <v>105</v>
       </c>
       <c r="B86">
-        <v>405</v>
+        <v>1</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>攻撃</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5094,17 +5094,17 @@
         <v>105</v>
       </c>
       <c r="B87">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>べネディクション</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5112,11 +5112,11 @@
         <v>105</v>
       </c>
       <c r="B88">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アンデッド</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5127,20 +5127,20 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5148,17 +5148,17 @@
         <v>113</v>
       </c>
       <c r="B90">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>攻撃</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5166,17 +5166,17 @@
         <v>113</v>
       </c>
       <c r="B91">
-        <v>231</v>
+        <v>505</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5184,17 +5184,17 @@
         <v>113</v>
       </c>
       <c r="B92">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5202,11 +5202,11 @@
         <v>113</v>
       </c>
       <c r="B93">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アンデッド</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5217,20 +5217,20 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5238,17 +5238,17 @@
         <v>114</v>
       </c>
       <c r="B95">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>攻撃</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5256,35 +5256,35 @@
         <v>114</v>
       </c>
       <c r="B96">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5292,17 +5292,17 @@
         <v>201</v>
       </c>
       <c r="B98">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>攻撃</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5310,11 +5310,11 @@
         <v>201</v>
       </c>
       <c r="B99">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アンデッド</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5328,17 +5328,17 @@
         <v>201</v>
       </c>
       <c r="B100">
-        <v>533</v>
+        <v>42</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5346,17 +5346,17 @@
         <v>201</v>
       </c>
       <c r="B101">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5364,11 +5364,11 @@
         <v>201</v>
       </c>
       <c r="B102">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5382,11 +5382,11 @@
         <v>201</v>
       </c>
       <c r="B103">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5397,20 +5397,20 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5418,17 +5418,17 @@
         <v>202</v>
       </c>
       <c r="B105">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>攻撃</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5436,17 +5436,17 @@
         <v>202</v>
       </c>
       <c r="B106">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5454,35 +5454,35 @@
         <v>202</v>
       </c>
       <c r="B107">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5490,17 +5490,17 @@
         <v>203</v>
       </c>
       <c r="B109">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>攻撃</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5508,11 +5508,11 @@
         <v>203</v>
       </c>
       <c r="B110">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -5526,11 +5526,11 @@
         <v>203</v>
       </c>
       <c r="B111">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5544,11 +5544,11 @@
         <v>203</v>
       </c>
       <c r="B112">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -5559,20 +5559,20 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5580,11 +5580,11 @@
         <v>204</v>
       </c>
       <c r="B114">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>攻撃</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5598,11 +5598,11 @@
         <v>204</v>
       </c>
       <c r="B115">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5616,11 +5616,11 @@
         <v>204</v>
       </c>
       <c r="B116">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>エリクシール</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5634,11 +5634,11 @@
         <v>204</v>
       </c>
       <c r="B117">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -5652,17 +5652,17 @@
         <v>204</v>
       </c>
       <c r="B118">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5670,17 +5670,17 @@
         <v>204</v>
       </c>
       <c r="B119">
-        <v>405</v>
+        <v>231</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5688,11 +5688,11 @@
         <v>204</v>
       </c>
       <c r="B120">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>べネディクション</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5706,11 +5706,11 @@
         <v>204</v>
       </c>
       <c r="B121">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5721,14 +5721,14 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5742,17 +5742,17 @@
         <v>205</v>
       </c>
       <c r="B123">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5760,17 +5760,17 @@
         <v>205</v>
       </c>
       <c r="B124">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5778,11 +5778,11 @@
         <v>205</v>
       </c>
       <c r="B125">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -5796,11 +5796,11 @@
         <v>205</v>
       </c>
       <c r="B126">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5811,20 +5811,20 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5832,17 +5832,17 @@
         <v>206</v>
       </c>
       <c r="B128">
-        <v>601</v>
+        <v>2</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>攻撃</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5850,35 +5850,35 @@
         <v>206</v>
       </c>
       <c r="B129">
-        <v>231</v>
+        <v>601</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エクステンション</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5886,17 +5886,17 @@
         <v>213</v>
       </c>
       <c r="B131">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>攻撃</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5904,17 +5904,17 @@
         <v>213</v>
       </c>
       <c r="B132">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5922,17 +5922,17 @@
         <v>213</v>
       </c>
       <c r="B133">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5940,35 +5940,35 @@
         <v>213</v>
       </c>
       <c r="B134">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
+        <v>アンチドード</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5976,11 +5976,11 @@
         <v>214</v>
       </c>
       <c r="B136">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>攻撃</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5994,11 +5994,11 @@
         <v>214</v>
       </c>
       <c r="B137">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6012,17 +6012,17 @@
         <v>214</v>
       </c>
       <c r="B138">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6030,17 +6030,17 @@
         <v>214</v>
       </c>
       <c r="B139">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6048,17 +6048,17 @@
         <v>214</v>
       </c>
       <c r="B140">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スペリオール</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6066,17 +6066,17 @@
         <v>214</v>
       </c>
       <c r="B141">
-        <v>422</v>
+        <v>231</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
+        <v>エクステンション</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6084,11 +6084,11 @@
         <v>214</v>
       </c>
       <c r="B142">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6102,16 +6102,34 @@
         <v>214</v>
       </c>
       <c r="B143">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>214</v>
+      </c>
+      <c r="B144">
+        <v>437</v>
+      </c>
+      <c r="C144" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
         <v>ホーミングクルセイド</v>
       </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
         <v>30</v>
       </c>
     </row>
@@ -6124,10 +6142,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6778,10 +6796,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B29">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C29">
         <v>22</v>
@@ -6801,10 +6819,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30">
-        <v>405</v>
+        <v>302</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -6819,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6830,41 +6848,64 @@
         <v>405</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>405</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
         <v>206</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>601</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>100</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -290,31 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +306,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,23 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +353,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +367,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -396,24 +390,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +418,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -440,6 +440,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -455,7 +473,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,49 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,31 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,37 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +634,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,45 +667,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -713,9 +693,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +725,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,7 +742,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,7 +751,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,127 +760,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2359,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3164,7 +3164,7 @@
         <v>36</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -6144,7 +6144,7 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6500"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -287,14 +287,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,48 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,22 +336,53 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,18 +403,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,7 +443,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,31 +545,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,127 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +638,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -648,45 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +687,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,15 +734,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6500"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -290,10 +290,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,24 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,16 +329,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,23 +358,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,7 +398,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +416,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,19 +443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,79 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,13 +533,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,31 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,16 +638,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,26 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,16 +695,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2359,7 +2359,7 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3534,10 +3534,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A92" sqref="$A92:$XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -5184,17 +5184,17 @@
         <v>113</v>
       </c>
       <c r="B92">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アンデッド</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5202,11 +5202,11 @@
         <v>113</v>
       </c>
       <c r="B93">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5217,20 +5217,20 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>攻撃</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5238,17 +5238,17 @@
         <v>114</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5256,35 +5256,35 @@
         <v>114</v>
       </c>
       <c r="B96">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="B97">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5292,17 +5292,17 @@
         <v>201</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5310,11 +5310,11 @@
         <v>201</v>
       </c>
       <c r="B99">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5328,17 +5328,17 @@
         <v>201</v>
       </c>
       <c r="B100">
-        <v>42</v>
+        <v>533</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5346,17 +5346,17 @@
         <v>201</v>
       </c>
       <c r="B101">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5364,11 +5364,11 @@
         <v>201</v>
       </c>
       <c r="B102">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5382,11 +5382,11 @@
         <v>201</v>
       </c>
       <c r="B103">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5397,20 +5397,20 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B104">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>攻撃</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5418,17 +5418,17 @@
         <v>202</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5436,17 +5436,17 @@
         <v>202</v>
       </c>
       <c r="B106">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5454,35 +5454,35 @@
         <v>202</v>
       </c>
       <c r="B107">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B108">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>攻撃</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5490,17 +5490,17 @@
         <v>203</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5508,11 +5508,11 @@
         <v>203</v>
       </c>
       <c r="B110">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -5526,11 +5526,11 @@
         <v>203</v>
       </c>
       <c r="B111">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5544,11 +5544,11 @@
         <v>203</v>
       </c>
       <c r="B112">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -5559,20 +5559,20 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B113">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>攻撃</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5580,11 +5580,11 @@
         <v>204</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5598,11 +5598,11 @@
         <v>204</v>
       </c>
       <c r="B115">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>エリクシール</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5616,11 +5616,11 @@
         <v>204</v>
       </c>
       <c r="B116">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5634,11 +5634,11 @@
         <v>204</v>
       </c>
       <c r="B117">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -5652,17 +5652,17 @@
         <v>204</v>
       </c>
       <c r="B118">
-        <v>431</v>
+        <v>231</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5670,17 +5670,17 @@
         <v>204</v>
       </c>
       <c r="B119">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>べネディクション</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5688,11 +5688,11 @@
         <v>204</v>
       </c>
       <c r="B120">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5706,11 +5706,11 @@
         <v>204</v>
       </c>
       <c r="B121">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5721,14 +5721,14 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B122">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>攻撃</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5742,17 +5742,17 @@
         <v>205</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5760,17 +5760,17 @@
         <v>205</v>
       </c>
       <c r="B124">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5778,11 +5778,11 @@
         <v>205</v>
       </c>
       <c r="B125">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -5796,11 +5796,11 @@
         <v>205</v>
       </c>
       <c r="B126">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>エクステンション</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5811,20 +5811,20 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B127">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5832,17 +5832,17 @@
         <v>206</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5850,35 +5850,35 @@
         <v>206</v>
       </c>
       <c r="B129">
-        <v>601</v>
+        <v>231</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>エクステンション</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B130">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5886,17 +5886,17 @@
         <v>213</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5904,17 +5904,17 @@
         <v>213</v>
       </c>
       <c r="B132">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5922,17 +5922,17 @@
         <v>213</v>
       </c>
       <c r="B133">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アンチドード</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5940,35 +5940,35 @@
         <v>213</v>
       </c>
       <c r="B134">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B135">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
+        <v>攻撃</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5976,11 +5976,11 @@
         <v>214</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5994,11 +5994,11 @@
         <v>214</v>
       </c>
       <c r="B137">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6012,17 +6012,17 @@
         <v>214</v>
       </c>
       <c r="B138">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6030,17 +6030,17 @@
         <v>214</v>
       </c>
       <c r="B139">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
+        <v>スペリオール</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6048,17 +6048,17 @@
         <v>214</v>
       </c>
       <c r="B140">
-        <v>438</v>
+        <v>231</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
+        <v>エクステンション</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6066,17 +6066,17 @@
         <v>214</v>
       </c>
       <c r="B141">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6084,11 +6084,11 @@
         <v>214</v>
       </c>
       <c r="B142">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6102,34 +6102,16 @@
         <v>214</v>
       </c>
       <c r="B143">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
-        <v>214</v>
-      </c>
-      <c r="B144">
-        <v>437</v>
-      </c>
-      <c r="C144" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
         <v>30</v>
       </c>
     </row>
@@ -6142,10 +6124,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6796,13 +6778,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29">
-        <v>322</v>
+        <v>505</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -6819,10 +6801,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B30">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -6842,10 +6824,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31">
-        <v>405</v>
+        <v>302</v>
       </c>
       <c r="C31">
         <v>22</v>
@@ -6860,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6871,41 +6853,64 @@
         <v>405</v>
       </c>
       <c r="C32">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
+        <v>204</v>
+      </c>
+      <c r="B33">
+        <v>405</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
         <v>206</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>601</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>100</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Enemies.xlsx
+++ b/Assets/Resources/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -292,7 +292,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,45 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,82 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,19 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,37 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,37 +533,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,25 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,21 +634,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -685,11 +670,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,21 +734,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,145 +742,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,1041 +1025,1105 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>41</v>
+            <v>33</v>
           </cell>
           <cell r="B8" t="str">
-            <v>アンデッド</v>
+            <v>居合</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="B9" t="str">
-            <v>アンデッド回復</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>101</v>
+            <v>42</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ファイアボール</v>
+            <v>アンデッド回復</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="B11" t="str">
-            <v>バーンストーム</v>
+            <v>ファイアボール</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>103</v>
+            <v>102</v>
           </cell>
           <cell r="B12" t="str">
-            <v>ヒートスタンプ</v>
+            <v>バーンストーム</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>104</v>
+            <v>103</v>
           </cell>
           <cell r="B13" t="str">
-            <v>ソードアダプト</v>
+            <v>ヒートスタンプ</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>111</v>
+            <v>104</v>
           </cell>
           <cell r="B14" t="str">
-            <v>インフェルノ</v>
+            <v>ソードアダプト</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B15" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>121</v>
+            <v>112</v>
           </cell>
           <cell r="B16" t="str">
-            <v>メルトバースト</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>131</v>
+            <v>113</v>
           </cell>
           <cell r="B17" t="str">
-            <v>ウルフソウル</v>
+            <v>アダプテーション</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>132</v>
+            <v>114</v>
           </cell>
           <cell r="B18" t="str">
-            <v>プリディカメント</v>
+            <v>モエサカルホノオ</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>133</v>
+            <v>121</v>
           </cell>
           <cell r="B19" t="str">
-            <v>アサルトシフト</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>134</v>
+            <v>131</v>
           </cell>
           <cell r="B20" t="str">
-            <v>スタートダッシュ</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>135</v>
+            <v>132</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ライズアップマインド</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>136</v>
+            <v>133</v>
           </cell>
           <cell r="B22" t="str">
-            <v>イグナイテッド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>137</v>
+            <v>134</v>
           </cell>
           <cell r="B23" t="str">
-            <v>アフターバーナー</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>141</v>
+            <v>135</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ファイアエンチャント</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>201</v>
+            <v>136</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ディスチャージ</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>202</v>
+            <v>137</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ライトニングウェブ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>203</v>
+            <v>141</v>
           </cell>
           <cell r="B27" t="str">
-            <v>シャープコード</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>204</v>
+            <v>201</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ショックインパルス</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>205</v>
+            <v>202</v>
           </cell>
           <cell r="B29" t="str">
-            <v>トラストチェイン</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>211</v>
+            <v>203</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ステップリーダー</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>212</v>
+            <v>204</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>221</v>
+            <v>205</v>
           </cell>
           <cell r="B32" t="str">
-            <v>アクセラレイト</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>231</v>
+            <v>211</v>
           </cell>
           <cell r="B33" t="str">
-            <v>エクステンション</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>232</v>
+            <v>212</v>
           </cell>
           <cell r="B34" t="str">
-            <v>スパークフォグ</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>233</v>
+            <v>213</v>
           </cell>
           <cell r="B35" t="str">
-            <v>スウィフトカレント</v>
+            <v>コウソクテンカイ</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>234</v>
+            <v>214</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ファストキャスター</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>235</v>
+            <v>221</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ヘブンリーラック</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>236</v>
+            <v>222</v>
           </cell>
           <cell r="B38" t="str">
-            <v>クイックアクト</v>
+            <v>ヴェンジェンス</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>241</v>
+            <v>231</v>
           </cell>
           <cell r="B39" t="str">
-            <v>サンダーエンチャント</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>301</v>
+            <v>232</v>
           </cell>
           <cell r="B40" t="str">
-            <v>アイスブレイド</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>302</v>
+            <v>233</v>
           </cell>
           <cell r="B41" t="str">
-            <v>カウンターオーラ</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>303</v>
+            <v>234</v>
           </cell>
           <cell r="B42" t="str">
-            <v>シールドスペル</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>304</v>
+            <v>235</v>
           </cell>
           <cell r="B43" t="str">
-            <v>エスコートソール</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>305</v>
+            <v>236</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ディープフリーズ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>311</v>
+            <v>241</v>
           </cell>
           <cell r="B45" t="str">
-            <v>フリジットシェル</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>312</v>
+            <v>301</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>313</v>
+            <v>302</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アンチドード</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>314</v>
+            <v>303</v>
           </cell>
           <cell r="B48" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>321</v>
+            <v>304</v>
           </cell>
           <cell r="B49" t="str">
-            <v>バブルブロウ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>322</v>
+            <v>305</v>
           </cell>
           <cell r="B50" t="str">
-            <v>アクアミラージュ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>331</v>
+            <v>311</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ガーディアンソウル</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>332</v>
+            <v>312</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アーマーコード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>333</v>
+            <v>313</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ガードシフト</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>334</v>
+            <v>314</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ノーリミット</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>335</v>
+            <v>321</v>
           </cell>
           <cell r="B55" t="str">
-            <v>カウンターヒール</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>336</v>
+            <v>322</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ペイシャンス</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>337</v>
+            <v>331</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>341</v>
+            <v>332</v>
           </cell>
           <cell r="B58" t="str">
-            <v>アイスエンチャント</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>401</v>
+            <v>333</v>
           </cell>
           <cell r="B59" t="str">
-            <v>セイントレーザー</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>402</v>
+            <v>334</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ペネトレイト</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>403</v>
+            <v>335</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ヒーリング</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>404</v>
+            <v>336</v>
           </cell>
           <cell r="B62" t="str">
-            <v>リフレッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>405</v>
+            <v>337</v>
           </cell>
           <cell r="B63" t="str">
-            <v>べネディクション</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>411</v>
+            <v>341</v>
           </cell>
           <cell r="B64" t="str">
-            <v>エリクシール</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>412</v>
+            <v>401</v>
           </cell>
           <cell r="B65" t="str">
-            <v>エンジェルフェザー</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>413</v>
+            <v>402</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ブレークザウォール</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>414</v>
+            <v>403</v>
           </cell>
           <cell r="B67" t="str">
-            <v>トリニティレイ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>421</v>
+            <v>404</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ホーリーグレイス</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>422</v>
+            <v>405</v>
           </cell>
           <cell r="B69" t="str">
-            <v>プリズムリフレクター</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>431</v>
+            <v>411</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ディバインシールド</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>432</v>
+            <v>412</v>
           </cell>
           <cell r="B71" t="str">
-            <v>メディケーション</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>433</v>
+            <v>413</v>
           </cell>
           <cell r="B72" t="str">
-            <v>エイミングスコープ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>434</v>
+            <v>414</v>
           </cell>
           <cell r="B73" t="str">
-            <v>リジェネレーション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>435</v>
+            <v>421</v>
           </cell>
           <cell r="B74" t="str">
-            <v>アライアンス</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>436</v>
+            <v>422</v>
           </cell>
           <cell r="B75" t="str">
-            <v>スペクトルマイン</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>437</v>
+            <v>431</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>438</v>
+            <v>432</v>
           </cell>
           <cell r="B77" t="str">
-            <v>スペリオール</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>441</v>
+            <v>433</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>501</v>
+            <v>434</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ダークプリズン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>502</v>
+            <v>435</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ユーサネイジア</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>503</v>
+            <v>436</v>
           </cell>
           <cell r="B81" t="str">
-            <v>ドレインヒール</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>504</v>
+            <v>437</v>
           </cell>
           <cell r="B82" t="str">
-            <v>デリートマジック</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>505</v>
+            <v>438</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ディプラヴィティ</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>511</v>
+            <v>441</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ディストラクション</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>512</v>
+            <v>501</v>
           </cell>
           <cell r="B85" t="str">
-            <v>カオスペイン</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>521</v>
+            <v>502</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ダークネス</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>531</v>
+            <v>503</v>
           </cell>
           <cell r="B87" t="str">
-            <v>イーグルアイ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>532</v>
+            <v>504</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ネヴァーエンド</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>533</v>
+            <v>505</v>
           </cell>
           <cell r="B89" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>534</v>
+            <v>511</v>
           </cell>
           <cell r="B90" t="str">
-            <v>スカルグラッジ</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>535</v>
+            <v>512</v>
           </cell>
           <cell r="B91" t="str">
-            <v>クリープアウト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>536</v>
+            <v>513</v>
           </cell>
           <cell r="B92" t="str">
-            <v>アンデッドペイン</v>
+            <v>セルフハーム</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>541</v>
+            <v>514</v>
           </cell>
           <cell r="B93" t="str">
-            <v>ダークエンチャント</v>
+            <v>スィートスイサード</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>601</v>
+            <v>521</v>
           </cell>
           <cell r="B94" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1000</v>
+            <v>531</v>
           </cell>
           <cell r="B95" t="str">
-            <v>愚者</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1001</v>
+            <v>532</v>
           </cell>
           <cell r="B96" t="str">
-            <v>魔術師</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1002</v>
+            <v>533</v>
           </cell>
           <cell r="B97" t="str">
-            <v>女帝</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1003</v>
+            <v>534</v>
           </cell>
           <cell r="B98" t="str">
-            <v>女教皇</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1004</v>
+            <v>535</v>
           </cell>
           <cell r="B99" t="str">
-            <v>皇帝</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1005</v>
+            <v>536</v>
           </cell>
           <cell r="B100" t="str">
-            <v>法王</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1006</v>
+            <v>541</v>
           </cell>
           <cell r="B101" t="str">
-            <v>恋愛</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1007</v>
+            <v>601</v>
           </cell>
           <cell r="B102" t="str">
-            <v>戦車</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1008</v>
+            <v>1000</v>
           </cell>
           <cell r="B103" t="str">
-            <v>正義</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1009</v>
+            <v>1001</v>
           </cell>
           <cell r="B104" t="str">
-            <v>隠者</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1010</v>
+            <v>1002</v>
           </cell>
           <cell r="B105" t="str">
-            <v>運命</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1011</v>
+            <v>1003</v>
           </cell>
           <cell r="B106" t="str">
-            <v>剛毅</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1012</v>
+            <v>1004</v>
           </cell>
           <cell r="B107" t="str">
-            <v>刑死者</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1013</v>
+            <v>1005</v>
           </cell>
           <cell r="B108" t="str">
-            <v>死神</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1014</v>
+            <v>1006</v>
           </cell>
           <cell r="B109" t="str">
-            <v>節制</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1015</v>
+            <v>1007</v>
           </cell>
           <cell r="B110" t="str">
-            <v>悪魔</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1016</v>
+            <v>1008</v>
           </cell>
           <cell r="B111" t="str">
-            <v>塔</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1017</v>
+            <v>1009</v>
           </cell>
           <cell r="B112" t="str">
-            <v>星</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1018</v>
+            <v>1010</v>
           </cell>
           <cell r="B113" t="str">
-            <v>月</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>1019</v>
+            <v>1011</v>
           </cell>
           <cell r="B114" t="str">
-            <v>太陽</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>1020</v>
+            <v>1012</v>
           </cell>
           <cell r="B115" t="str">
-            <v>審判</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>1022</v>
+            <v>1013</v>
           </cell>
           <cell r="B116" t="str">
-            <v>杖</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>1023</v>
+            <v>1014</v>
           </cell>
           <cell r="B117" t="str">
-            <v>器</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>1024</v>
+            <v>1015</v>
           </cell>
           <cell r="B118" t="str">
-            <v>剣</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>1025</v>
+            <v>1016</v>
           </cell>
           <cell r="B119" t="str">
-            <v>貨幣</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>2001</v>
+            <v>1017</v>
           </cell>
           <cell r="B120" t="str">
-            <v>元素術・炎</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>2002</v>
+            <v>1018</v>
           </cell>
           <cell r="B121" t="str">
-            <v>元素術・雷</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>2003</v>
+            <v>1019</v>
           </cell>
           <cell r="B122" t="str">
-            <v>元素術・氷</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>2004</v>
+            <v>1020</v>
           </cell>
           <cell r="B123" t="str">
-            <v>光魔術</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>2005</v>
+            <v>1022</v>
           </cell>
           <cell r="B124" t="str">
-            <v>超次元術</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>2009</v>
+            <v>1023</v>
           </cell>
           <cell r="B125" t="str">
-            <v>はずす</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>4001</v>
+            <v>1024</v>
           </cell>
           <cell r="B126" t="str">
-            <v>人体錬成+\d</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>4002</v>
+            <v>1025</v>
           </cell>
           <cell r="B127" t="str">
-            <v>理性拡張+\d</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4003</v>
+            <v>2001</v>
           </cell>
           <cell r="B128" t="str">
-            <v>存在修復+\d</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>4004</v>
+            <v>2002</v>
           </cell>
           <cell r="B129" t="str">
-            <v>救済執行+\d</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>4005</v>
+            <v>2003</v>
           </cell>
           <cell r="B130" t="str">
-            <v>素子補充+\d</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>4101</v>
+            <v>2004</v>
           </cell>
           <cell r="B131" t="str">
-            <v>最大Hp+\d</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>4102</v>
+            <v>2005</v>
           </cell>
           <cell r="B132" t="str">
-            <v>最大Mp+\d</v>
+            <v>超次元術</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>4103</v>
+            <v>2009</v>
           </cell>
           <cell r="B133" t="str">
-            <v>ATK+\d</v>
+            <v>はずす</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>4104</v>
+            <v>4001</v>
           </cell>
           <cell r="B134" t="str">
-            <v>DEF+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>4105</v>
+            <v>4002</v>
           </cell>
           <cell r="B135" t="str">
-            <v>SPD+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>4201</v>
+            <v>4003</v>
           </cell>
           <cell r="B136" t="str">
-            <v>\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
+            <v>4004</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>救済執行+\d</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>4005</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>素子補充+\d</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>4101</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>最大Hp+\d</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>4102</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>最大Mp+\d</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>4103</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>ATK+\d</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>4104</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>DEF+\d</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>4105</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>SPD+\d</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>4201</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
             <v>4301</v>
           </cell>
-          <cell r="B137" t="str">
+          <cell r="B145" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2359,7 +2423,7 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3536,8 +3600,8 @@
   <sheetPr/>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A92" sqref="$A92:$XFD92"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
